--- a/teaching/traditional_assets/database/data/bahrain/bahrain_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/bahrain/bahrain_metals_mining.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bax_albh" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,118 +593,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0388</v>
+        <v>0.0579</v>
       </c>
       <c r="G2">
-        <v>0.1084577114427861</v>
+        <v>0.09621920880199027</v>
       </c>
       <c r="H2">
-        <v>0.1084577114427861</v>
+        <v>0.09621920880199027</v>
       </c>
       <c r="I2">
-        <v>-0.03248102510438581</v>
+        <v>0.04793440555029959</v>
       </c>
       <c r="J2">
-        <v>-0.03248102510438581</v>
+        <v>0.04793440555029959</v>
       </c>
       <c r="K2">
-        <v>-68.90000000000001</v>
+        <v>-22.4</v>
       </c>
       <c r="L2">
-        <v>-0.02742288557213931</v>
+        <v>-0.007848908511160166</v>
       </c>
       <c r="M2">
-        <v>7.1</v>
+        <v>13.84</v>
       </c>
       <c r="N2">
-        <v>0.004533554689994253</v>
+        <v>0.00719708788351534</v>
       </c>
       <c r="O2">
-        <v>-0.1030478955007257</v>
+        <v>-0.6178571428571429</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.001944877795111805</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>-0.1669642857142857</v>
       </c>
       <c r="S2">
-        <v>7.1</v>
+        <v>10.1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.7297687861271676</v>
       </c>
       <c r="U2">
-        <v>264.8</v>
+        <v>244</v>
       </c>
       <c r="V2">
-        <v>0.1690824340718984</v>
+        <v>0.1268850754030161</v>
       </c>
       <c r="W2">
-        <v>-0.02379390130193045</v>
+        <v>-0.007926397735314932</v>
       </c>
       <c r="X2">
-        <v>0.3359134792133401</v>
+        <v>0.213190092886289</v>
       </c>
       <c r="Y2">
-        <v>-0.3597073805152706</v>
+        <v>-0.2211164906216039</v>
       </c>
       <c r="Z2">
-        <v>0.537876931981924</v>
+        <v>0.5434861267163071</v>
       </c>
       <c r="AA2">
-        <v>-0.01747079413077489</v>
+        <v>0.02605168440898098</v>
       </c>
       <c r="AB2">
-        <v>0.1702867121449461</v>
+        <v>0.1272282656450726</v>
       </c>
       <c r="AC2">
-        <v>-0.187757506275721</v>
+        <v>-0.1011765812360916</v>
       </c>
       <c r="AD2">
-        <v>2689.9</v>
+        <v>2783.1</v>
       </c>
       <c r="AE2">
-        <v>9.942877873846678</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2699.842877873847</v>
+        <v>2783.1</v>
       </c>
       <c r="AG2">
-        <v>2435.042877873846</v>
+        <v>2539.1</v>
       </c>
       <c r="AH2">
-        <v>0.6328830355129962</v>
+        <v>0.5913813986103142</v>
       </c>
       <c r="AI2">
-        <v>0.4885848073394104</v>
+        <v>0.5008187723812779</v>
       </c>
       <c r="AJ2">
-        <v>0.6085868343616351</v>
+        <v>0.5690370005154523</v>
       </c>
       <c r="AK2">
-        <v>0.4628441421975113</v>
+        <v>0.4778942613540118</v>
       </c>
       <c r="AL2">
-        <v>22.4</v>
+        <v>120.4</v>
       </c>
       <c r="AM2">
-        <v>20.98</v>
+        <v>118.3</v>
       </c>
       <c r="AN2">
-        <v>24.12899174739864</v>
+        <v>6.371565934065933</v>
       </c>
       <c r="AO2">
-        <v>-3.75</v>
+        <v>1.136212624584718</v>
       </c>
       <c r="AP2">
-        <v>21.84286758049737</v>
+        <v>5.812957875457875</v>
       </c>
       <c r="AQ2">
-        <v>-4.003813155386083</v>
+        <v>1.156382079459003</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +724,8836 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0388</v>
+        <v>0.0579</v>
       </c>
       <c r="G3">
-        <v>0.1084577114427861</v>
+        <v>0.09621920880199027</v>
       </c>
       <c r="H3">
-        <v>0.1084577114427861</v>
+        <v>0.09621920880199027</v>
       </c>
       <c r="I3">
-        <v>-0.03248102510438581</v>
+        <v>0.04793440555029959</v>
       </c>
       <c r="J3">
-        <v>-0.03248102510438581</v>
+        <v>0.04793440555029959</v>
       </c>
       <c r="K3">
-        <v>-68.90000000000001</v>
+        <v>-22.4</v>
       </c>
       <c r="L3">
-        <v>-0.02742288557213931</v>
+        <v>-0.007848908511160166</v>
       </c>
       <c r="M3">
-        <v>7.1</v>
+        <v>13.84</v>
       </c>
       <c r="N3">
-        <v>0.004533554689994253</v>
+        <v>0.00719708788351534</v>
       </c>
       <c r="O3">
-        <v>-0.1030478955007257</v>
+        <v>-0.6178571428571429</v>
       </c>
       <c r="P3">
+        <v>3.74</v>
+      </c>
+      <c r="Q3">
+        <v>0.001944877795111805</v>
+      </c>
+      <c r="R3">
+        <v>-0.1669642857142857</v>
+      </c>
+      <c r="S3">
+        <v>10.1</v>
+      </c>
+      <c r="T3">
+        <v>0.7297687861271676</v>
+      </c>
+      <c r="U3">
+        <v>244</v>
+      </c>
+      <c r="V3">
+        <v>0.1268850754030161</v>
+      </c>
+      <c r="W3">
+        <v>-0.007926397735314932</v>
+      </c>
+      <c r="X3">
+        <v>0.213190092886289</v>
+      </c>
+      <c r="Y3">
+        <v>-0.2211164906216039</v>
+      </c>
+      <c r="Z3">
+        <v>0.5434861267163071</v>
+      </c>
+      <c r="AA3">
+        <v>0.02605168440898098</v>
+      </c>
+      <c r="AB3">
+        <v>0.1272282656450726</v>
+      </c>
+      <c r="AC3">
+        <v>-0.1011765812360916</v>
+      </c>
+      <c r="AD3">
+        <v>2783.1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>2783.1</v>
+      </c>
+      <c r="AG3">
+        <v>2539.1</v>
+      </c>
+      <c r="AH3">
+        <v>0.5913813986103142</v>
+      </c>
+      <c r="AI3">
+        <v>0.5008187723812779</v>
+      </c>
+      <c r="AJ3">
+        <v>0.5690370005154523</v>
+      </c>
+      <c r="AK3">
+        <v>0.4778942613540118</v>
+      </c>
+      <c r="AL3">
+        <v>120.4</v>
+      </c>
+      <c r="AM3">
+        <v>118.3</v>
+      </c>
+      <c r="AN3">
+        <v>6.371565934065933</v>
+      </c>
+      <c r="AO3">
+        <v>1.136212624584718</v>
+      </c>
+      <c r="AP3">
+        <v>5.812957875457875</v>
+      </c>
+      <c r="AQ3">
+        <v>1.156382079459003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Aluminium Bahrain B.S.C. (BAX:ALBH)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BAX:ALBH</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.591381398610314</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1923</v>
+      </c>
+      <c r="H2">
+        <v>6560.0121067034</v>
+      </c>
+      <c r="I2">
+        <v>4462.1</v>
+      </c>
+      <c r="J2">
+        <v>6316.0121067034</v>
+      </c>
+      <c r="K2">
+        <v>2783.1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.127228265645073</v>
+      </c>
+      <c r="N2">
+        <v>0.0926132845924085</v>
+      </c>
+      <c r="O2">
+        <v>0.0678324143336359</v>
+      </c>
+      <c r="P2">
+        <v>0.0162</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.213190092886289</v>
+      </c>
+      <c r="T2">
+        <v>0.0926132845924085</v>
+      </c>
+      <c r="U2">
+        <v>2.02880972208433</v>
+      </c>
+      <c r="V2">
+        <v>0.829009391123898</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1923</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.06783241433363595</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>436.8</v>
+      </c>
+      <c r="AH2">
+        <v>300</v>
+      </c>
+      <c r="AI2">
+        <v>686.8000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>2783.1</v>
+      </c>
+      <c r="AK2">
+        <v>2783.1</v>
+      </c>
+      <c r="AL2">
+        <v>120.4</v>
+      </c>
+      <c r="AM2">
+        <v>2783.1</v>
+      </c>
+      <c r="AN2">
+        <v>244</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09261328459240853</v>
+      </c>
+      <c r="C2">
+        <v>6560.012106703402</v>
+      </c>
+      <c r="D2">
+        <v>6316.012106703402</v>
+      </c>
+      <c r="E2">
+        <v>-2783.1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>244</v>
+      </c>
+      <c r="H2">
+        <v>1923</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>436.8</v>
+      </c>
+      <c r="K2">
+        <v>300</v>
+      </c>
+      <c r="L2">
+        <v>136.8</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>136.8</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>136.8</v>
+      </c>
+      <c r="Q2">
+        <v>436.8</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.09261328459240853</v>
+      </c>
+      <c r="T2">
+        <v>0.8290093911238979</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0.0162</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09268228459240853</v>
+      </c>
+      <c r="C3">
+        <v>6507.724518855722</v>
+      </c>
+      <c r="D3">
+        <v>6310.785518855721</v>
+      </c>
+      <c r="E3">
+        <v>-2736.039</v>
+      </c>
+      <c r="F3">
+        <v>47.06100000000001</v>
+      </c>
+      <c r="G3">
+        <v>244</v>
+      </c>
+      <c r="H3">
+        <v>1923</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>436.8</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>136.8</v>
+      </c>
+      <c r="M3">
+        <v>0.7623882000000001</v>
+      </c>
+      <c r="N3">
+        <v>136.0376118</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>136.0376118</v>
+      </c>
+      <c r="Q3">
+        <v>436.0376118</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.09345483292162478</v>
+      </c>
+      <c r="T3">
+        <v>0.8373832233574727</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.0162</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>179.436145522714</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09275128459240854</v>
+      </c>
+      <c r="C4">
+        <v>6455.445574004088</v>
+      </c>
+      <c r="D4">
+        <v>6305.567574004089</v>
+      </c>
+      <c r="E4">
+        <v>-2688.978</v>
+      </c>
+      <c r="F4">
+        <v>94.12200000000001</v>
+      </c>
+      <c r="G4">
+        <v>244</v>
+      </c>
+      <c r="H4">
+        <v>1923</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>436.8</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>136.8</v>
+      </c>
+      <c r="M4">
+        <v>1.5247764</v>
+      </c>
+      <c r="N4">
+        <v>135.2752236</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>135.2752236</v>
+      </c>
+      <c r="Q4">
+        <v>435.2752236</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.09431355570653932</v>
+      </c>
+      <c r="T4">
+        <v>0.8459279501264265</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.0162</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>89.71807276135701</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09282028459240851</v>
+      </c>
+      <c r="C5">
+        <v>6403.175250727361</v>
+      </c>
+      <c r="D5">
+        <v>6300.358250727361</v>
+      </c>
+      <c r="E5">
+        <v>-2641.917</v>
+      </c>
+      <c r="F5">
+        <v>141.183</v>
+      </c>
+      <c r="G5">
+        <v>244</v>
+      </c>
+      <c r="H5">
+        <v>1923</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>436.8</v>
+      </c>
+      <c r="K5">
+        <v>300</v>
+      </c>
+      <c r="L5">
+        <v>136.8</v>
+      </c>
+      <c r="M5">
+        <v>2.2871646</v>
+      </c>
+      <c r="N5">
+        <v>134.5128354</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>134.5128354</v>
+      </c>
+      <c r="Q5">
+        <v>434.5128354</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.09518998411588507</v>
+      </c>
+      <c r="T5">
+        <v>0.8546488568287607</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.0162</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>59.81204850757135</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09288928459240853</v>
+      </c>
+      <c r="C6">
+        <v>6350.913527675119</v>
+      </c>
+      <c r="D6">
+        <v>6295.157527675118</v>
+      </c>
+      <c r="E6">
+        <v>-2594.856</v>
+      </c>
+      <c r="F6">
+        <v>188.244</v>
+      </c>
+      <c r="G6">
+        <v>244</v>
+      </c>
+      <c r="H6">
+        <v>1923</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>436.8</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>136.8</v>
+      </c>
+      <c r="M6">
+        <v>3.0495528</v>
+      </c>
+      <c r="N6">
+        <v>133.7504472</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>133.7504472</v>
+      </c>
+      <c r="Q6">
+        <v>433.7504472000001</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.09608467145042555</v>
+      </c>
+      <c r="T6">
+        <v>0.8635514490873938</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0.0162</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>44.85903638067851</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09295828459240851</v>
+      </c>
+      <c r="C7">
+        <v>6298.660383567386</v>
+      </c>
+      <c r="D7">
+        <v>6289.965383567386</v>
+      </c>
+      <c r="E7">
+        <v>-2547.795</v>
+      </c>
+      <c r="F7">
+        <v>235.305</v>
+      </c>
+      <c r="G7">
+        <v>244</v>
+      </c>
+      <c r="H7">
+        <v>1923</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>436.8</v>
+      </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>136.8</v>
+      </c>
+      <c r="M7">
+        <v>3.811941</v>
+      </c>
+      <c r="N7">
+        <v>132.988059</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>132.988059</v>
+      </c>
+      <c r="Q7">
+        <v>432.988059</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.09699819430779844</v>
+      </c>
+      <c r="T7">
+        <v>0.8726414643409451</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0.0162</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>35.8872291045428</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.09302728459240851</v>
+      </c>
+      <c r="C8">
+        <v>6246.41579719433</v>
+      </c>
+      <c r="D8">
+        <v>6284.78179719433</v>
+      </c>
+      <c r="E8">
+        <v>-2500.734</v>
+      </c>
+      <c r="F8">
+        <v>282.366</v>
+      </c>
+      <c r="G8">
+        <v>244</v>
+      </c>
+      <c r="H8">
+        <v>1923</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>436.8</v>
+      </c>
+      <c r="K8">
+        <v>300</v>
+      </c>
+      <c r="L8">
+        <v>136.8</v>
+      </c>
+      <c r="M8">
+        <v>4.574329199999999</v>
+      </c>
+      <c r="N8">
+        <v>132.2256708</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>132.2256708</v>
+      </c>
+      <c r="Q8">
+        <v>432.2256708</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.09793115382171119</v>
+      </c>
+      <c r="T8">
+        <v>0.8819248841743594</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0.0162</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>29.90602425378568</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.09309628459240851</v>
+      </c>
+      <c r="C9">
+        <v>6194.179747415981</v>
+      </c>
+      <c r="D9">
+        <v>6279.606747415981</v>
+      </c>
+      <c r="E9">
+        <v>-2453.673</v>
+      </c>
+      <c r="F9">
+        <v>329.4270000000001</v>
+      </c>
+      <c r="G9">
+        <v>244</v>
+      </c>
+      <c r="H9">
+        <v>1923</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>436.8</v>
+      </c>
+      <c r="K9">
+        <v>300</v>
+      </c>
+      <c r="L9">
+        <v>136.8</v>
+      </c>
+      <c r="M9">
+        <v>5.336717400000001</v>
+      </c>
+      <c r="N9">
+        <v>131.4632826</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>131.4632826</v>
+      </c>
+      <c r="Q9">
+        <v>431.4632826</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.09888417698108443</v>
+      </c>
+      <c r="T9">
+        <v>0.8914079474450515</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0.0162</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>25.63373507467343</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.09316528459240854</v>
+      </c>
+      <c r="C10">
+        <v>6141.952213161937</v>
+      </c>
+      <c r="D10">
+        <v>6274.440213161937</v>
+      </c>
+      <c r="E10">
+        <v>-2406.612</v>
+      </c>
+      <c r="F10">
+        <v>376.4880000000001</v>
+      </c>
+      <c r="G10">
+        <v>244</v>
+      </c>
+      <c r="H10">
+        <v>1923</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>436.8</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+      <c r="L10">
+        <v>136.8</v>
+      </c>
+      <c r="M10">
+        <v>6.099105600000001</v>
+      </c>
+      <c r="N10">
+        <v>130.7008944</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>130.7008944</v>
+      </c>
+      <c r="Q10">
+        <v>430.7008944</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.09985791803522666</v>
+      </c>
+      <c r="T10">
+        <v>0.9010971642651064</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0.0162</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>22.42951819033925</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.09323428459240853</v>
+      </c>
+      <c r="C11">
+        <v>6089.733173431086</v>
+      </c>
+      <c r="D11">
+        <v>6269.282173431086</v>
+      </c>
+      <c r="E11">
+        <v>-2359.551</v>
+      </c>
+      <c r="F11">
+        <v>423.549</v>
+      </c>
+      <c r="G11">
+        <v>244</v>
+      </c>
+      <c r="H11">
+        <v>1923</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>436.8</v>
+      </c>
+      <c r="K11">
+        <v>300</v>
+      </c>
+      <c r="L11">
+        <v>136.8</v>
+      </c>
+      <c r="M11">
+        <v>6.8614938</v>
+      </c>
+      <c r="N11">
+        <v>129.9385062</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>129.9385062</v>
+      </c>
+      <c r="Q11">
+        <v>429.9385062</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1008530599916577</v>
+      </c>
+      <c r="T11">
+        <v>0.9109993309053824</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0.0162</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>19.93734950252378</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.09330328459240853</v>
+      </c>
+      <c r="C12">
+        <v>6037.522607291315</v>
+      </c>
+      <c r="D12">
+        <v>6264.132607291314</v>
+      </c>
+      <c r="E12">
+        <v>-2312.49</v>
+      </c>
+      <c r="F12">
+        <v>470.6100000000001</v>
+      </c>
+      <c r="G12">
+        <v>244</v>
+      </c>
+      <c r="H12">
+        <v>1923</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>436.8</v>
+      </c>
+      <c r="K12">
+        <v>300</v>
+      </c>
+      <c r="L12">
+        <v>136.8</v>
+      </c>
+      <c r="M12">
+        <v>7.623882000000001</v>
+      </c>
+      <c r="N12">
+        <v>129.176118</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>129.176118</v>
+      </c>
+      <c r="Q12">
+        <v>429.176118</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1018703162137873</v>
+      </c>
+      <c r="T12">
+        <v>0.9211215456932199</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0.0162</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>17.9436145522714</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09337228459240855</v>
+      </c>
+      <c r="C13">
+        <v>5985.320493879221</v>
+      </c>
+      <c r="D13">
+        <v>6258.991493879222</v>
+      </c>
+      <c r="E13">
+        <v>-2265.429</v>
+      </c>
+      <c r="F13">
+        <v>517.671</v>
+      </c>
+      <c r="G13">
+        <v>244</v>
+      </c>
+      <c r="H13">
+        <v>1923</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>436.8</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>136.8</v>
+      </c>
+      <c r="M13">
+        <v>8.3862702</v>
+      </c>
+      <c r="N13">
+        <v>128.4137298</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>128.4137298</v>
+      </c>
+      <c r="Q13">
+        <v>428.4137298</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1029104321263017</v>
+      </c>
+      <c r="T13">
+        <v>0.9314712259819079</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0.0162</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>16.31237686570127</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09344128459240851</v>
+      </c>
+      <c r="C14">
+        <v>5933.126812399857</v>
+      </c>
+      <c r="D14">
+        <v>6253.858812399857</v>
+      </c>
+      <c r="E14">
+        <v>-2218.368</v>
+      </c>
+      <c r="F14">
+        <v>564.732</v>
+      </c>
+      <c r="G14">
+        <v>244</v>
+      </c>
+      <c r="H14">
+        <v>1923</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>436.8</v>
+      </c>
+      <c r="K14">
+        <v>300</v>
+      </c>
+      <c r="L14">
+        <v>136.8</v>
+      </c>
+      <c r="M14">
+        <v>9.148658399999999</v>
+      </c>
+      <c r="N14">
+        <v>127.6513416</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>127.6513416</v>
+      </c>
+      <c r="Q14">
+        <v>427.6513416</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1039741870368279</v>
+      </c>
+      <c r="T14">
+        <v>0.9420561262771566</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.0162</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>14.95301212689284</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09351028459240851</v>
+      </c>
+      <c r="C15">
+        <v>5880.941542126408</v>
+      </c>
+      <c r="D15">
+        <v>6248.734542126408</v>
+      </c>
+      <c r="E15">
+        <v>-2171.307</v>
+      </c>
+      <c r="F15">
+        <v>611.7930000000001</v>
+      </c>
+      <c r="G15">
+        <v>244</v>
+      </c>
+      <c r="H15">
+        <v>1923</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>436.8</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>136.8</v>
+      </c>
+      <c r="M15">
+        <v>9.911046600000001</v>
+      </c>
+      <c r="N15">
+        <v>126.8889534</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>126.8889534</v>
+      </c>
+      <c r="Q15">
+        <v>426.8889534</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1050623960832282</v>
+      </c>
+      <c r="T15">
+        <v>0.9528843576136757</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0.0162</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>13.80278042482415</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.09380328459240853</v>
+      </c>
+      <c r="C16">
+        <v>5812.214174603841</v>
+      </c>
+      <c r="D16">
+        <v>6227.068174603842</v>
+      </c>
+      <c r="E16">
+        <v>-2124.246</v>
+      </c>
+      <c r="F16">
+        <v>658.8540000000002</v>
+      </c>
+      <c r="G16">
+        <v>244</v>
+      </c>
+      <c r="H16">
+        <v>1923</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>436.8</v>
+      </c>
+      <c r="K16">
+        <v>300</v>
+      </c>
+      <c r="L16">
+        <v>136.8</v>
+      </c>
+      <c r="M16">
+        <v>11.7276012</v>
+      </c>
+      <c r="N16">
+        <v>125.0723988</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>125.0723988</v>
+      </c>
+      <c r="Q16">
+        <v>425.0723988</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1061759123167541</v>
+      </c>
+      <c r="T16">
+        <v>0.9639644082836023</v>
+      </c>
+      <c r="U16">
+        <v>0.0178</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0.0178</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>11.66478955645252</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.09388828459240853</v>
+      </c>
+      <c r="C17">
+        <v>5758.895797504971</v>
+      </c>
+      <c r="D17">
+        <v>6220.810797504971</v>
+      </c>
+      <c r="E17">
+        <v>-2077.185</v>
+      </c>
+      <c r="F17">
+        <v>705.9150000000001</v>
+      </c>
+      <c r="G17">
+        <v>244</v>
+      </c>
+      <c r="H17">
+        <v>1923</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>436.8</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>136.8</v>
+      </c>
+      <c r="M17">
+        <v>12.565287</v>
+      </c>
+      <c r="N17">
+        <v>124.234713</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>124.234713</v>
+      </c>
+      <c r="Q17">
+        <v>424.234713</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1073156289322453</v>
+      </c>
+      <c r="T17">
+        <v>0.9753051660281152</v>
+      </c>
+      <c r="U17">
+        <v>0.0178</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.0178</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>10.88713691935568</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09432528459240851</v>
+      </c>
+      <c r="C18">
+        <v>5679.862022211817</v>
+      </c>
+      <c r="D18">
+        <v>6188.838022211817</v>
+      </c>
+      <c r="E18">
+        <v>-2030.124</v>
+      </c>
+      <c r="F18">
+        <v>752.9760000000001</v>
+      </c>
+      <c r="G18">
+        <v>244</v>
+      </c>
+      <c r="H18">
+        <v>1923</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>436.8</v>
+      </c>
+      <c r="K18">
+        <v>300</v>
+      </c>
+      <c r="L18">
+        <v>136.8</v>
+      </c>
+      <c r="M18">
+        <v>15.05952</v>
+      </c>
+      <c r="N18">
+        <v>121.74048</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>121.74048</v>
+      </c>
+      <c r="Q18">
+        <v>421.74048</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1084824816576292</v>
+      </c>
+      <c r="T18">
+        <v>0.9869159418141642</v>
+      </c>
+      <c r="U18">
+        <v>0.02</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0.02</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>9.0839548670874</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09443228459240852</v>
+      </c>
+      <c r="C19">
+        <v>5625.022472962878</v>
+      </c>
+      <c r="D19">
+        <v>6181.059472962878</v>
+      </c>
+      <c r="E19">
+        <v>-1983.063</v>
+      </c>
+      <c r="F19">
+        <v>800.0370000000001</v>
+      </c>
+      <c r="G19">
+        <v>244</v>
+      </c>
+      <c r="H19">
+        <v>1923</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>436.8</v>
+      </c>
+      <c r="K19">
+        <v>300</v>
+      </c>
+      <c r="L19">
+        <v>136.8</v>
+      </c>
+      <c r="M19">
+        <v>16.00074</v>
+      </c>
+      <c r="N19">
+        <v>120.79926</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>120.79926</v>
+      </c>
+      <c r="Q19">
+        <v>420.79926</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1096774513161548</v>
+      </c>
+      <c r="T19">
+        <v>0.9988064953299975</v>
+      </c>
+      <c r="U19">
+        <v>0.02</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0.02</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>8.549604580788138</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09453928459240853</v>
+      </c>
+      <c r="C20">
+        <v>5570.202452380178</v>
+      </c>
+      <c r="D20">
+        <v>6173.300452380178</v>
+      </c>
+      <c r="E20">
+        <v>-1936.002</v>
+      </c>
+      <c r="F20">
+        <v>847.0980000000001</v>
+      </c>
+      <c r="G20">
+        <v>244</v>
+      </c>
+      <c r="H20">
+        <v>1923</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>436.8</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20">
+        <v>136.8</v>
+      </c>
+      <c r="M20">
+        <v>16.94196</v>
+      </c>
+      <c r="N20">
+        <v>119.85804</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>119.85804</v>
+      </c>
+      <c r="Q20">
+        <v>419.85804</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1109015665761079</v>
+      </c>
+      <c r="T20">
+        <v>1.010987062346217</v>
+      </c>
+      <c r="U20">
+        <v>0.02</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.02</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>8.074626548522133</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09485528459240852</v>
+      </c>
+      <c r="C21">
+        <v>5500.340254859233</v>
+      </c>
+      <c r="D21">
+        <v>6150.499254859234</v>
+      </c>
+      <c r="E21">
+        <v>-1888.941</v>
+      </c>
+      <c r="F21">
+        <v>894.1590000000001</v>
+      </c>
+      <c r="G21">
+        <v>244</v>
+      </c>
+      <c r="H21">
+        <v>1923</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>436.8</v>
+      </c>
+      <c r="K21">
+        <v>300</v>
+      </c>
+      <c r="L21">
+        <v>136.8</v>
+      </c>
+      <c r="M21">
+        <v>18.8667549</v>
+      </c>
+      <c r="N21">
+        <v>117.9332451</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>117.9332451</v>
+      </c>
+      <c r="Q21">
+        <v>417.9332451</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1121559069042081</v>
+      </c>
+      <c r="T21">
+        <v>1.023468384103578</v>
+      </c>
+      <c r="U21">
+        <v>0.0211</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0.0211</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>7.250849482334664</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09497328459240854</v>
+      </c>
+      <c r="C22">
+        <v>5444.808015364608</v>
+      </c>
+      <c r="D22">
+        <v>6142.028015364608</v>
+      </c>
+      <c r="E22">
+        <v>-1841.88</v>
+      </c>
+      <c r="F22">
+        <v>941.2200000000001</v>
+      </c>
+      <c r="G22">
+        <v>244</v>
+      </c>
+      <c r="H22">
+        <v>1923</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>436.8</v>
+      </c>
+      <c r="K22">
+        <v>300</v>
+      </c>
+      <c r="L22">
+        <v>136.8</v>
+      </c>
+      <c r="M22">
+        <v>19.859742</v>
+      </c>
+      <c r="N22">
+        <v>116.940258</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>116.940258</v>
+      </c>
+      <c r="Q22">
+        <v>416.940258</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1134416057405107</v>
+      </c>
+      <c r="T22">
+        <v>1.036261738904872</v>
+      </c>
+      <c r="U22">
+        <v>0.0211</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0.0211</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>6.888307008217931</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09509128459240855</v>
+      </c>
+      <c r="C23">
+        <v>5389.299079082311</v>
+      </c>
+      <c r="D23">
+        <v>6133.580079082311</v>
+      </c>
+      <c r="E23">
+        <v>-1794.819</v>
+      </c>
+      <c r="F23">
+        <v>988.2810000000001</v>
+      </c>
+      <c r="G23">
+        <v>244</v>
+      </c>
+      <c r="H23">
+        <v>1923</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>436.8</v>
+      </c>
+      <c r="K23">
+        <v>300</v>
+      </c>
+      <c r="L23">
+        <v>136.8</v>
+      </c>
+      <c r="M23">
+        <v>20.8527291</v>
+      </c>
+      <c r="N23">
+        <v>115.9472709</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>115.9472709</v>
+      </c>
+      <c r="Q23">
+        <v>415.9472709</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1147598539144412</v>
+      </c>
+      <c r="T23">
+        <v>1.0493789761062</v>
+      </c>
+      <c r="U23">
+        <v>0.0211</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0.0211</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>6.560292388778983</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09553928459240854</v>
+      </c>
+      <c r="C24">
+        <v>5310.375061103719</v>
+      </c>
+      <c r="D24">
+        <v>6101.717061103719</v>
+      </c>
+      <c r="E24">
+        <v>-1747.758</v>
+      </c>
+      <c r="F24">
+        <v>1035.342</v>
+      </c>
+      <c r="G24">
+        <v>244</v>
+      </c>
+      <c r="H24">
+        <v>1923</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>436.8</v>
+      </c>
+      <c r="K24">
+        <v>300</v>
+      </c>
+      <c r="L24">
+        <v>136.8</v>
+      </c>
+      <c r="M24">
+        <v>23.3987292</v>
+      </c>
+      <c r="N24">
+        <v>113.4012708</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>113.4012708</v>
+      </c>
+      <c r="Q24">
+        <v>413.4012708</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1161119033236007</v>
+      </c>
+      <c r="T24">
+        <v>1.062832552722946</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0.0226</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>5.846471354521253</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09567228459240852</v>
+      </c>
+      <c r="C25">
+        <v>5253.918357690798</v>
+      </c>
+      <c r="D25">
+        <v>6092.321357690798</v>
+      </c>
+      <c r="E25">
+        <v>-1700.697</v>
+      </c>
+      <c r="F25">
+        <v>1082.403</v>
+      </c>
+      <c r="G25">
+        <v>244</v>
+      </c>
+      <c r="H25">
+        <v>1923</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>436.8</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25">
+        <v>136.8</v>
+      </c>
+      <c r="M25">
+        <v>24.4623078</v>
+      </c>
+      <c r="N25">
+        <v>112.3376922</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>112.3376922</v>
+      </c>
+      <c r="Q25">
+        <v>412.3376922</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1174990708992319</v>
+      </c>
+      <c r="T25">
+        <v>1.076635572888179</v>
+      </c>
+      <c r="U25">
+        <v>0.0226</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0.0226</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>5.592276947802939</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09580528459240853</v>
+      </c>
+      <c r="C26">
+        <v>5197.490545658554</v>
+      </c>
+      <c r="D26">
+        <v>6082.954545658554</v>
+      </c>
+      <c r="E26">
+        <v>-1653.636</v>
+      </c>
+      <c r="F26">
+        <v>1129.464</v>
+      </c>
+      <c r="G26">
+        <v>244</v>
+      </c>
+      <c r="H26">
+        <v>1923</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>436.8</v>
+      </c>
+      <c r="K26">
+        <v>300</v>
+      </c>
+      <c r="L26">
+        <v>136.8</v>
+      </c>
+      <c r="M26">
+        <v>25.5258864</v>
+      </c>
+      <c r="N26">
+        <v>111.2741136</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>111.2741136</v>
+      </c>
+      <c r="Q26">
+        <v>411.2741136</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1189227428847481</v>
+      </c>
+      <c r="T26">
+        <v>1.090801830426182</v>
+      </c>
+      <c r="U26">
+        <v>0.0226</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0.0226</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>5.35926540831115</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09593828459240851</v>
+      </c>
+      <c r="C27">
+        <v>5141.091491951944</v>
+      </c>
+      <c r="D27">
+        <v>6073.616491951943</v>
+      </c>
+      <c r="E27">
+        <v>-1606.575</v>
+      </c>
+      <c r="F27">
+        <v>1176.525</v>
+      </c>
+      <c r="G27">
+        <v>244</v>
+      </c>
+      <c r="H27">
+        <v>1923</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>436.8</v>
+      </c>
+      <c r="K27">
+        <v>300</v>
+      </c>
+      <c r="L27">
+        <v>136.8</v>
+      </c>
+      <c r="M27">
+        <v>26.589465</v>
+      </c>
+      <c r="N27">
+        <v>110.210535</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>110.210535</v>
+      </c>
+      <c r="Q27">
+        <v>410.210535</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1203843794565447</v>
+      </c>
+      <c r="T27">
+        <v>1.105345854831864</v>
+      </c>
+      <c r="U27">
+        <v>0.0226</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.0226</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>5.144894791978703</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09607128459240852</v>
+      </c>
+      <c r="C28">
+        <v>5084.721064331688</v>
+      </c>
+      <c r="D28">
+        <v>6064.307064331688</v>
+      </c>
+      <c r="E28">
+        <v>-1559.514</v>
+      </c>
+      <c r="F28">
+        <v>1223.586</v>
+      </c>
+      <c r="G28">
+        <v>244</v>
+      </c>
+      <c r="H28">
+        <v>1923</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>436.8</v>
+      </c>
+      <c r="K28">
+        <v>300</v>
+      </c>
+      <c r="L28">
+        <v>136.8</v>
+      </c>
+      <c r="M28">
+        <v>27.6530436</v>
+      </c>
+      <c r="N28">
+        <v>109.1469564</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>109.1469564</v>
+      </c>
+      <c r="Q28">
+        <v>409.1469564</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.121885519719471</v>
+      </c>
+      <c r="T28">
+        <v>1.12028296097824</v>
+      </c>
+      <c r="U28">
+        <v>0.0226</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0.0226</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>4.947014223056445</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09620428459240851</v>
+      </c>
+      <c r="C29">
+        <v>5028.379131368038</v>
+      </c>
+      <c r="D29">
+        <v>6055.026131368038</v>
+      </c>
+      <c r="E29">
+        <v>-1512.453</v>
+      </c>
+      <c r="F29">
+        <v>1270.647</v>
+      </c>
+      <c r="G29">
+        <v>244</v>
+      </c>
+      <c r="H29">
+        <v>1923</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>436.8</v>
+      </c>
+      <c r="K29">
+        <v>300</v>
+      </c>
+      <c r="L29">
+        <v>136.8</v>
+      </c>
+      <c r="M29">
+        <v>28.7166222</v>
+      </c>
+      <c r="N29">
+        <v>108.0833778</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>108.0833778</v>
+      </c>
+      <c r="Q29">
+        <v>408.0833778</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1234277871128884</v>
+      </c>
+      <c r="T29">
+        <v>1.135629302909449</v>
+      </c>
+      <c r="U29">
+        <v>0.0226</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0.0226</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>4.763791474054354</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09633728459240852</v>
+      </c>
+      <c r="C30">
+        <v>4972.065562434582</v>
+      </c>
+      <c r="D30">
+        <v>6045.773562434582</v>
+      </c>
+      <c r="E30">
+        <v>-1465.392</v>
+      </c>
+      <c r="F30">
+        <v>1317.708</v>
+      </c>
+      <c r="G30">
+        <v>244</v>
+      </c>
+      <c r="H30">
+        <v>1923</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>436.8</v>
+      </c>
+      <c r="K30">
+        <v>300</v>
+      </c>
+      <c r="L30">
+        <v>136.8</v>
+      </c>
+      <c r="M30">
+        <v>29.78020080000001</v>
+      </c>
+      <c r="N30">
+        <v>107.0197992</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>107.0197992</v>
+      </c>
+      <c r="Q30">
+        <v>407.0197992</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1250128952672341</v>
+      </c>
+      <c r="T30">
+        <v>1.151401932116525</v>
+      </c>
+      <c r="U30">
+        <v>0.0226</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0.0226</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>4.593656064266698</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1215262845924085</v>
+      </c>
+      <c r="C31">
+        <v>3568.040899089125</v>
+      </c>
+      <c r="D31">
+        <v>4688.809899089125</v>
+      </c>
+      <c r="E31">
+        <v>-1418.331</v>
+      </c>
+      <c r="F31">
+        <v>1364.769</v>
+      </c>
+      <c r="G31">
+        <v>244</v>
+      </c>
+      <c r="H31">
+        <v>1923</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>436.8</v>
+      </c>
+      <c r="K31">
+        <v>300</v>
+      </c>
+      <c r="L31">
+        <v>136.8</v>
+      </c>
+      <c r="M31">
+        <v>148.759821</v>
+      </c>
+      <c r="N31">
+        <v>-11.95982099999998</v>
+      </c>
+      <c r="O31">
         <v>-0</v>
       </c>
-      <c r="Q3">
+      <c r="P31">
+        <v>-11.95982099999998</v>
+      </c>
+      <c r="Q31">
+        <v>288.040179</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.126642654355505</v>
+      </c>
+      <c r="T31">
+        <v>1.167618860737884</v>
+      </c>
+      <c r="U31">
+        <v>0.109</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0.109</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.9196031501005908</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1225232845924085</v>
+      </c>
+      <c r="C32">
+        <v>3479.692071358101</v>
+      </c>
+      <c r="D32">
+        <v>4647.522071358101</v>
+      </c>
+      <c r="E32">
+        <v>-1371.27</v>
+      </c>
+      <c r="F32">
+        <v>1411.83</v>
+      </c>
+      <c r="G32">
+        <v>244</v>
+      </c>
+      <c r="H32">
+        <v>1923</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>436.8</v>
+      </c>
+      <c r="K32">
+        <v>300</v>
+      </c>
+      <c r="L32">
+        <v>136.8</v>
+      </c>
+      <c r="M32">
+        <v>153.88947</v>
+      </c>
+      <c r="N32">
+        <v>-17.08947000000001</v>
+      </c>
+      <c r="O32">
         <v>-0</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>7.1</v>
-      </c>
-      <c r="T3">
+      <c r="P32">
+        <v>-17.08947000000001</v>
+      </c>
+      <c r="Q32">
+        <v>282.91053</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.128318977989155</v>
+      </c>
+      <c r="T32">
+        <v>1.184299130176997</v>
+      </c>
+      <c r="U32">
+        <v>0.109</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0.109</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.8889497117639042</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1235202845924085</v>
+      </c>
+      <c r="C33">
+        <v>3392.064025656203</v>
+      </c>
+      <c r="D33">
+        <v>4606.955025656203</v>
+      </c>
+      <c r="E33">
+        <v>-1324.209</v>
+      </c>
+      <c r="F33">
+        <v>1458.891</v>
+      </c>
+      <c r="G33">
+        <v>244</v>
+      </c>
+      <c r="H33">
+        <v>1923</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>436.8</v>
+      </c>
+      <c r="K33">
+        <v>300</v>
+      </c>
+      <c r="L33">
+        <v>136.8</v>
+      </c>
+      <c r="M33">
+        <v>159.019119</v>
+      </c>
+      <c r="N33">
+        <v>-22.21911900000001</v>
+      </c>
+      <c r="O33">
+        <v>-0</v>
+      </c>
+      <c r="P33">
+        <v>-22.21911900000001</v>
+      </c>
+      <c r="Q33">
+        <v>277.780881</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1300438907136355</v>
+      </c>
+      <c r="T33">
+        <v>1.201462885686809</v>
+      </c>
+      <c r="U33">
+        <v>0.109</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0.109</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.86027391461023</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1245172845924085</v>
+      </c>
+      <c r="C34">
+        <v>3305.138050736618</v>
+      </c>
+      <c r="D34">
+        <v>4567.090050736618</v>
+      </c>
+      <c r="E34">
+        <v>-1277.148</v>
+      </c>
+      <c r="F34">
+        <v>1505.952</v>
+      </c>
+      <c r="G34">
+        <v>244</v>
+      </c>
+      <c r="H34">
+        <v>1923</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>436.8</v>
+      </c>
+      <c r="K34">
+        <v>300</v>
+      </c>
+      <c r="L34">
+        <v>136.8</v>
+      </c>
+      <c r="M34">
+        <v>164.148768</v>
+      </c>
+      <c r="N34">
+        <v>-27.34876800000001</v>
+      </c>
+      <c r="O34">
+        <v>-0</v>
+      </c>
+      <c r="P34">
+        <v>-27.34876800000001</v>
+      </c>
+      <c r="Q34">
+        <v>272.651232</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1318195361653067</v>
+      </c>
+      <c r="T34">
+        <v>1.219131457535144</v>
+      </c>
+      <c r="U34">
+        <v>0.109</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0.109</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.8333903547786603</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1255142845924085</v>
+      </c>
+      <c r="C35">
+        <v>3218.896077446164</v>
+      </c>
+      <c r="D35">
+        <v>4527.909077446164</v>
+      </c>
+      <c r="E35">
+        <v>-1230.087</v>
+      </c>
+      <c r="F35">
+        <v>1553.013</v>
+      </c>
+      <c r="G35">
+        <v>244</v>
+      </c>
+      <c r="H35">
+        <v>1923</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>436.8</v>
+      </c>
+      <c r="K35">
+        <v>300</v>
+      </c>
+      <c r="L35">
+        <v>136.8</v>
+      </c>
+      <c r="M35">
+        <v>169.278417</v>
+      </c>
+      <c r="N35">
+        <v>-32.47841700000001</v>
+      </c>
+      <c r="O35">
+        <v>-0</v>
+      </c>
+      <c r="P35">
+        <v>-32.47841700000001</v>
+      </c>
+      <c r="Q35">
+        <v>267.521583</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1336481859588187</v>
+      </c>
+      <c r="T35">
+        <v>1.237327449438654</v>
+      </c>
+      <c r="U35">
+        <v>0.109</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0.109</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.8081361016035493</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1371192845924085</v>
+      </c>
+      <c r="C36">
+        <v>2760.736040150475</v>
+      </c>
+      <c r="D36">
+        <v>4116.810040150475</v>
+      </c>
+      <c r="E36">
+        <v>-1183.026</v>
+      </c>
+      <c r="F36">
+        <v>1600.074</v>
+      </c>
+      <c r="G36">
+        <v>244</v>
+      </c>
+      <c r="H36">
+        <v>1923</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>436.8</v>
+      </c>
+      <c r="K36">
+        <v>300</v>
+      </c>
+      <c r="L36">
+        <v>136.8</v>
+      </c>
+      <c r="M36">
+        <v>224.3303748</v>
+      </c>
+      <c r="N36">
+        <v>-87.5303748</v>
+      </c>
+      <c r="O36">
+        <v>-0</v>
+      </c>
+      <c r="P36">
+        <v>-87.5303748</v>
+      </c>
+      <c r="Q36">
+        <v>212.4696252</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1355322493824372</v>
+      </c>
+      <c r="T36">
+        <v>1.256074835036209</v>
+      </c>
+      <c r="U36">
+        <v>0.1402</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0.1402</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.6098148773743323</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1384282845924085</v>
+      </c>
+      <c r="C37">
+        <v>2671.942089390948</v>
+      </c>
+      <c r="D37">
+        <v>4075.077089390949</v>
+      </c>
+      <c r="E37">
+        <v>-1135.965</v>
+      </c>
+      <c r="F37">
+        <v>1647.135</v>
+      </c>
+      <c r="G37">
+        <v>244</v>
+      </c>
+      <c r="H37">
+        <v>1923</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>436.8</v>
+      </c>
+      <c r="K37">
+        <v>300</v>
+      </c>
+      <c r="L37">
+        <v>136.8</v>
+      </c>
+      <c r="M37">
+        <v>230.928327</v>
+      </c>
+      <c r="N37">
+        <v>-94.12832700000001</v>
+      </c>
+      <c r="O37">
+        <v>-0</v>
+      </c>
+      <c r="P37">
+        <v>-94.12832700000001</v>
+      </c>
+      <c r="Q37">
+        <v>205.871673</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1374742839883208</v>
+      </c>
+      <c r="T37">
+        <v>1.275399063267535</v>
+      </c>
+      <c r="U37">
+        <v>0.1402</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0.1402</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.592391595163637</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1397372845924085</v>
+      </c>
+      <c r="C38">
+        <v>2583.985758529981</v>
+      </c>
+      <c r="D38">
+        <v>4034.181758529981</v>
+      </c>
+      <c r="E38">
+        <v>-1088.904</v>
+      </c>
+      <c r="F38">
+        <v>1694.196</v>
+      </c>
+      <c r="G38">
+        <v>244</v>
+      </c>
+      <c r="H38">
+        <v>1923</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>436.8</v>
+      </c>
+      <c r="K38">
+        <v>300</v>
+      </c>
+      <c r="L38">
+        <v>136.8</v>
+      </c>
+      <c r="M38">
+        <v>237.5262792</v>
+      </c>
+      <c r="N38">
+        <v>-100.7262792</v>
+      </c>
+      <c r="O38">
+        <v>-0</v>
+      </c>
+      <c r="P38">
+        <v>-100.7262792</v>
+      </c>
+      <c r="Q38">
+        <v>199.2737208</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1394770071756383</v>
+      </c>
+      <c r="T38">
+        <v>1.295327173631091</v>
+      </c>
+      <c r="U38">
+        <v>0.1402</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0.1402</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.5759362730757582</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1410462845924085</v>
+      </c>
+      <c r="C39">
+        <v>2496.84208038651</v>
+      </c>
+      <c r="D39">
+        <v>3994.09908038651</v>
+      </c>
+      <c r="E39">
+        <v>-1041.843</v>
+      </c>
+      <c r="F39">
+        <v>1741.257</v>
+      </c>
+      <c r="G39">
+        <v>244</v>
+      </c>
+      <c r="H39">
+        <v>1923</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>436.8</v>
+      </c>
+      <c r="K39">
+        <v>300</v>
+      </c>
+      <c r="L39">
+        <v>136.8</v>
+      </c>
+      <c r="M39">
+        <v>244.1242314</v>
+      </c>
+      <c r="N39">
+        <v>-107.3242314</v>
+      </c>
+      <c r="O39">
+        <v>-0</v>
+      </c>
+      <c r="P39">
+        <v>-107.3242314</v>
+      </c>
+      <c r="Q39">
+        <v>192.6757686</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1415433088768389</v>
+      </c>
+      <c r="T39">
+        <v>1.315887922418886</v>
+      </c>
+      <c r="U39">
+        <v>0.1402</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0.1402</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.5603704278574946</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1423552845924085</v>
+      </c>
+      <c r="C40">
+        <v>2410.487070289565</v>
+      </c>
+      <c r="D40">
+        <v>3954.805070289566</v>
+      </c>
+      <c r="E40">
+        <v>-994.7819999999997</v>
+      </c>
+      <c r="F40">
+        <v>1788.318</v>
+      </c>
+      <c r="G40">
+        <v>244</v>
+      </c>
+      <c r="H40">
+        <v>1923</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>436.8</v>
+      </c>
+      <c r="K40">
+        <v>300</v>
+      </c>
+      <c r="L40">
+        <v>136.8</v>
+      </c>
+      <c r="M40">
+        <v>250.7221836</v>
+      </c>
+      <c r="N40">
+        <v>-113.9221836</v>
+      </c>
+      <c r="O40">
+        <v>-0</v>
+      </c>
+      <c r="P40">
+        <v>-113.9221836</v>
+      </c>
+      <c r="Q40">
+        <v>186.0778164</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1436762654716267</v>
+      </c>
+      <c r="T40">
+        <v>1.337111921167577</v>
+      </c>
+      <c r="U40">
+        <v>0.1402</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0.1402</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.5456238376507183</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1436642845924085</v>
+      </c>
+      <c r="C41">
+        <v>2324.897678219359</v>
+      </c>
+      <c r="D41">
+        <v>3916.276678219359</v>
+      </c>
+      <c r="E41">
+        <v>-947.7209999999998</v>
+      </c>
+      <c r="F41">
+        <v>1835.379</v>
+      </c>
+      <c r="G41">
+        <v>244</v>
+      </c>
+      <c r="H41">
+        <v>1923</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>436.8</v>
+      </c>
+      <c r="K41">
+        <v>300</v>
+      </c>
+      <c r="L41">
+        <v>136.8</v>
+      </c>
+      <c r="M41">
+        <v>257.3201358</v>
+      </c>
+      <c r="N41">
+        <v>-120.5201358</v>
+      </c>
+      <c r="O41">
+        <v>-0</v>
+      </c>
+      <c r="P41">
+        <v>-120.5201358</v>
+      </c>
+      <c r="Q41">
+        <v>179.4798642</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1458791550695222</v>
+      </c>
+      <c r="T41">
+        <v>1.359031788727701</v>
+      </c>
+      <c r="U41">
+        <v>0.1402</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0.1402</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.5316334828391616</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1449732845924085</v>
+      </c>
+      <c r="C42">
+        <v>2240.051743718879</v>
+      </c>
+      <c r="D42">
+        <v>3878.49174371888</v>
+      </c>
+      <c r="E42">
+        <v>-900.6599999999996</v>
+      </c>
+      <c r="F42">
+        <v>1882.44</v>
+      </c>
+      <c r="G42">
+        <v>244</v>
+      </c>
+      <c r="H42">
+        <v>1923</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>436.8</v>
+      </c>
+      <c r="K42">
+        <v>300</v>
+      </c>
+      <c r="L42">
+        <v>136.8</v>
+      </c>
+      <c r="M42">
+        <v>263.918088</v>
+      </c>
+      <c r="N42">
+        <v>-127.118088</v>
+      </c>
+      <c r="O42">
+        <v>-0</v>
+      </c>
+      <c r="P42">
+        <v>-127.118088</v>
+      </c>
+      <c r="Q42">
+        <v>172.881912</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1481554743206809</v>
+      </c>
+      <c r="T42">
+        <v>1.38168231853983</v>
+      </c>
+      <c r="U42">
+        <v>0.1402</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0.1402</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.5183426457681825</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1462822845924085</v>
+      </c>
+      <c r="C43">
+        <v>2155.927953390667</v>
+      </c>
+      <c r="D43">
+        <v>3841.428953390667</v>
+      </c>
+      <c r="E43">
+        <v>-853.5989999999997</v>
+      </c>
+      <c r="F43">
+        <v>1929.501</v>
+      </c>
+      <c r="G43">
+        <v>244</v>
+      </c>
+      <c r="H43">
+        <v>1923</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>436.8</v>
+      </c>
+      <c r="K43">
+        <v>300</v>
+      </c>
+      <c r="L43">
+        <v>136.8</v>
+      </c>
+      <c r="M43">
+        <v>270.5160402</v>
+      </c>
+      <c r="N43">
+        <v>-133.7160402</v>
+      </c>
+      <c r="O43">
+        <v>-0</v>
+      </c>
+      <c r="P43">
+        <v>-133.7160402</v>
+      </c>
+      <c r="Q43">
+        <v>166.2839598</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1505089569362856</v>
+      </c>
+      <c r="T43">
+        <v>1.405100662921861</v>
+      </c>
+      <c r="U43">
+        <v>0.1402</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0.1402</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.5057001422128609</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1658612845924085</v>
+      </c>
+      <c r="C44">
+        <v>1628.47144773139</v>
+      </c>
+      <c r="D44">
+        <v>3361.03344773139</v>
+      </c>
+      <c r="E44">
+        <v>-806.5379999999998</v>
+      </c>
+      <c r="F44">
+        <v>1976.562</v>
+      </c>
+      <c r="G44">
+        <v>244</v>
+      </c>
+      <c r="H44">
+        <v>1923</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>436.8</v>
+      </c>
+      <c r="K44">
+        <v>300</v>
+      </c>
+      <c r="L44">
+        <v>136.8</v>
+      </c>
+      <c r="M44">
+        <v>363.0944394000001</v>
+      </c>
+      <c r="N44">
+        <v>-226.2944394</v>
+      </c>
+      <c r="O44">
+        <v>-0</v>
+      </c>
+      <c r="P44">
+        <v>-226.2944394</v>
+      </c>
+      <c r="Q44">
+        <v>73.70556059999996</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1529435941248423</v>
+      </c>
+      <c r="T44">
+        <v>1.429326536420514</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0.1837</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3767614844943835</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1676052845924085</v>
+      </c>
+      <c r="C45">
+        <v>1544.38298937499</v>
+      </c>
+      <c r="D45">
+        <v>3324.00598937499</v>
+      </c>
+      <c r="E45">
+        <v>-759.4769999999999</v>
+      </c>
+      <c r="F45">
+        <v>2023.623</v>
+      </c>
+      <c r="G45">
+        <v>244</v>
+      </c>
+      <c r="H45">
+        <v>1923</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>436.8</v>
+      </c>
+      <c r="K45">
+        <v>300</v>
+      </c>
+      <c r="L45">
+        <v>136.8</v>
+      </c>
+      <c r="M45">
+        <v>371.7395451</v>
+      </c>
+      <c r="N45">
+        <v>-234.9395451</v>
+      </c>
+      <c r="O45">
+        <v>-0</v>
+      </c>
+      <c r="P45">
+        <v>-234.9395451</v>
+      </c>
+      <c r="Q45">
+        <v>65.06045490000002</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1554636571796641</v>
+      </c>
+      <c r="T45">
+        <v>1.454402440568242</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0.1837</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.3679995895061422</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1693492845924085</v>
+      </c>
+      <c r="C46">
+        <v>1461.101481046989</v>
+      </c>
+      <c r="D46">
+        <v>3287.785481046989</v>
+      </c>
+      <c r="E46">
+        <v>-712.4159999999997</v>
+      </c>
+      <c r="F46">
+        <v>2070.684</v>
+      </c>
+      <c r="G46">
+        <v>244</v>
+      </c>
+      <c r="H46">
+        <v>1923</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>436.8</v>
+      </c>
+      <c r="K46">
+        <v>300</v>
+      </c>
+      <c r="L46">
+        <v>136.8</v>
+      </c>
+      <c r="M46">
+        <v>380.3846508</v>
+      </c>
+      <c r="N46">
+        <v>-243.5846508</v>
+      </c>
+      <c r="O46">
+        <v>-0</v>
+      </c>
+      <c r="P46">
+        <v>-243.5846508</v>
+      </c>
+      <c r="Q46">
+        <v>56.41534919999998</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1580737224864438</v>
+      </c>
+      <c r="T46">
+        <v>1.480373912721246</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0.1837</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.3596359624719117</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1710932845924085</v>
+      </c>
+      <c r="C47">
+        <v>1378.600827952666</v>
+      </c>
+      <c r="D47">
+        <v>3252.345827952666</v>
+      </c>
+      <c r="E47">
+        <v>-665.3549999999996</v>
+      </c>
+      <c r="F47">
+        <v>2117.745</v>
+      </c>
+      <c r="G47">
+        <v>244</v>
+      </c>
+      <c r="H47">
+        <v>1923</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>436.8</v>
+      </c>
+      <c r="K47">
+        <v>300</v>
+      </c>
+      <c r="L47">
+        <v>136.8</v>
+      </c>
+      <c r="M47">
+        <v>389.0297565000001</v>
+      </c>
+      <c r="N47">
+        <v>-252.2297565000001</v>
+      </c>
+      <c r="O47">
+        <v>-0</v>
+      </c>
+      <c r="P47">
+        <v>-252.2297565000001</v>
+      </c>
+      <c r="Q47">
+        <v>47.77024349999994</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1607786992589246</v>
+      </c>
+      <c r="T47">
+        <v>1.507289802043451</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0.1837</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.351644052194758</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1728372845924085</v>
+      </c>
+      <c r="C48">
+        <v>1296.856048421373</v>
+      </c>
+      <c r="D48">
+        <v>3217.662048421373</v>
+      </c>
+      <c r="E48">
+        <v>-618.2939999999999</v>
+      </c>
+      <c r="F48">
+        <v>2164.806</v>
+      </c>
+      <c r="G48">
+        <v>244</v>
+      </c>
+      <c r="H48">
+        <v>1923</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>436.8</v>
+      </c>
+      <c r="K48">
+        <v>300</v>
+      </c>
+      <c r="L48">
+        <v>136.8</v>
+      </c>
+      <c r="M48">
+        <v>397.6748622</v>
+      </c>
+      <c r="N48">
+        <v>-260.8748622</v>
+      </c>
+      <c r="O48">
+        <v>-0</v>
+      </c>
+      <c r="P48">
+        <v>-260.8748622</v>
+      </c>
+      <c r="Q48">
+        <v>39.1251378</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1635838603563121</v>
+      </c>
+      <c r="T48">
+        <v>1.535202576155366</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0.1837</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.3439996162774807</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1745812845924085</v>
+      </c>
+      <c r="C49">
+        <v>1215.843215179725</v>
+      </c>
+      <c r="D49">
+        <v>3183.710215179725</v>
+      </c>
+      <c r="E49">
+        <v>-571.2329999999997</v>
+      </c>
+      <c r="F49">
+        <v>2211.867</v>
+      </c>
+      <c r="G49">
+        <v>244</v>
+      </c>
+      <c r="H49">
+        <v>1923</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>436.8</v>
+      </c>
+      <c r="K49">
+        <v>300</v>
+      </c>
+      <c r="L49">
+        <v>136.8</v>
+      </c>
+      <c r="M49">
+        <v>406.3199679000001</v>
+      </c>
+      <c r="N49">
+        <v>-269.5199679</v>
+      </c>
+      <c r="O49">
+        <v>-0</v>
+      </c>
+      <c r="P49">
+        <v>-269.5199679</v>
+      </c>
+      <c r="Q49">
+        <v>30.48003209999996</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1664948765894501</v>
+      </c>
+      <c r="T49">
+        <v>1.564168662497921</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0.1837</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.3366804755056193</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1763252845924085</v>
+      </c>
+      <c r="C50">
+        <v>1135.539400303984</v>
+      </c>
+      <c r="D50">
+        <v>3150.467400303984</v>
+      </c>
+      <c r="E50">
+        <v>-524.172</v>
+      </c>
+      <c r="F50">
+        <v>2258.928</v>
+      </c>
+      <c r="G50">
+        <v>244</v>
+      </c>
+      <c r="H50">
+        <v>1923</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>436.8</v>
+      </c>
+      <c r="K50">
+        <v>300</v>
+      </c>
+      <c r="L50">
+        <v>136.8</v>
+      </c>
+      <c r="M50">
+        <v>414.9650736</v>
+      </c>
+      <c r="N50">
+        <v>-278.1650736</v>
+      </c>
+      <c r="O50">
+        <v>-0</v>
+      </c>
+      <c r="P50">
+        <v>-278.1650736</v>
+      </c>
+      <c r="Q50">
+        <v>21.83492640000003</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.169517854985401</v>
+      </c>
+      <c r="T50">
+        <v>1.594248829084419</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0.1837</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.3296662989325857</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1780692845924085</v>
+      </c>
+      <c r="C51">
+        <v>1055.922623585491</v>
+      </c>
+      <c r="D51">
+        <v>3117.911623585491</v>
+      </c>
+      <c r="E51">
+        <v>-477.1109999999999</v>
+      </c>
+      <c r="F51">
+        <v>2305.989</v>
+      </c>
+      <c r="G51">
+        <v>244</v>
+      </c>
+      <c r="H51">
+        <v>1923</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>436.8</v>
+      </c>
+      <c r="K51">
+        <v>300</v>
+      </c>
+      <c r="L51">
+        <v>136.8</v>
+      </c>
+      <c r="M51">
+        <v>423.6101793</v>
+      </c>
+      <c r="N51">
+        <v>-286.8101793</v>
+      </c>
+      <c r="O51">
+        <v>-0</v>
+      </c>
+      <c r="P51">
+        <v>-286.8101793</v>
+      </c>
+      <c r="Q51">
+        <v>13.18982069999998</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1726593815537422</v>
+      </c>
+      <c r="T51">
+        <v>1.625508610046859</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0.1837</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.3229384152809002</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1798132845924085</v>
+      </c>
+      <c r="C52">
+        <v>976.9718040647945</v>
+      </c>
+      <c r="D52">
+        <v>3086.021804064795</v>
+      </c>
+      <c r="E52">
+        <v>-430.0499999999997</v>
+      </c>
+      <c r="F52">
+        <v>2353.05</v>
+      </c>
+      <c r="G52">
+        <v>244</v>
+      </c>
+      <c r="H52">
+        <v>1923</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>436.8</v>
+      </c>
+      <c r="K52">
+        <v>300</v>
+      </c>
+      <c r="L52">
+        <v>136.8</v>
+      </c>
+      <c r="M52">
+        <v>432.255285</v>
+      </c>
+      <c r="N52">
+        <v>-295.455285</v>
+      </c>
+      <c r="O52">
+        <v>-0</v>
+      </c>
+      <c r="P52">
+        <v>-295.455285</v>
+      </c>
+      <c r="Q52">
+        <v>4.544714999999997</v>
+      </c>
+      <c r="R52">
         <v>1</v>
       </c>
-      <c r="U3">
-        <v>264.8</v>
-      </c>
-      <c r="V3">
-        <v>0.1690824340718984</v>
-      </c>
-      <c r="W3">
-        <v>-0.02379390130193045</v>
-      </c>
-      <c r="X3">
-        <v>0.3359134792133401</v>
-      </c>
-      <c r="Y3">
-        <v>-0.3597073805152706</v>
-      </c>
-      <c r="Z3">
-        <v>0.537876931981924</v>
-      </c>
-      <c r="AA3">
-        <v>-0.01747079413077489</v>
-      </c>
-      <c r="AB3">
-        <v>0.1702867121449461</v>
-      </c>
-      <c r="AC3">
-        <v>-0.187757506275721</v>
-      </c>
-      <c r="AD3">
-        <v>2689.9</v>
-      </c>
-      <c r="AE3">
-        <v>9.942877873846678</v>
-      </c>
-      <c r="AF3">
-        <v>2699.842877873847</v>
-      </c>
-      <c r="AG3">
-        <v>2435.042877873846</v>
-      </c>
-      <c r="AH3">
-        <v>0.6328830355129962</v>
-      </c>
-      <c r="AI3">
-        <v>0.4885848073394104</v>
-      </c>
-      <c r="AJ3">
-        <v>0.6085868343616351</v>
-      </c>
-      <c r="AK3">
-        <v>0.4628441421975113</v>
-      </c>
-      <c r="AL3">
-        <v>22.4</v>
-      </c>
-      <c r="AM3">
-        <v>20.98</v>
-      </c>
-      <c r="AN3">
-        <v>24.12899174739864</v>
-      </c>
-      <c r="AO3">
-        <v>-3.75</v>
-      </c>
-      <c r="AP3">
-        <v>21.84286758049737</v>
-      </c>
-      <c r="AQ3">
-        <v>-4.003813155386083</v>
+      <c r="S52">
+        <v>0.1759265691848171</v>
+      </c>
+      <c r="T52">
+        <v>1.658018782247796</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0.1837</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.3164796469752822</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1815572845924086</v>
+      </c>
+      <c r="C53">
+        <v>898.6667145098945</v>
+      </c>
+      <c r="D53">
+        <v>3054.777714509895</v>
+      </c>
+      <c r="E53">
+        <v>-382.9889999999996</v>
+      </c>
+      <c r="F53">
+        <v>2400.111</v>
+      </c>
+      <c r="G53">
+        <v>244</v>
+      </c>
+      <c r="H53">
+        <v>1923</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>436.8</v>
+      </c>
+      <c r="K53">
+        <v>300</v>
+      </c>
+      <c r="L53">
+        <v>136.8</v>
+      </c>
+      <c r="M53">
+        <v>440.9003907000001</v>
+      </c>
+      <c r="N53">
+        <v>-304.1003907</v>
+      </c>
+      <c r="O53">
+        <v>-0</v>
+      </c>
+      <c r="P53">
+        <v>-304.1003907</v>
+      </c>
+      <c r="Q53">
+        <v>-4.100390700000048</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1793271114130786</v>
+      </c>
+      <c r="T53">
+        <v>1.691855900252853</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0.1837</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.310274163701257</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1833012845924085</v>
+      </c>
+      <c r="C54">
+        <v>820.9879386320627</v>
+      </c>
+      <c r="D54">
+        <v>3024.159938632063</v>
+      </c>
+      <c r="E54">
+        <v>-335.9279999999994</v>
+      </c>
+      <c r="F54">
+        <v>2447.172</v>
+      </c>
+      <c r="G54">
+        <v>244</v>
+      </c>
+      <c r="H54">
+        <v>1923</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>436.8</v>
+      </c>
+      <c r="K54">
+        <v>300</v>
+      </c>
+      <c r="L54">
+        <v>136.8</v>
+      </c>
+      <c r="M54">
+        <v>449.5454964000001</v>
+      </c>
+      <c r="N54">
+        <v>-312.7454964000001</v>
+      </c>
+      <c r="O54">
+        <v>-0</v>
+      </c>
+      <c r="P54">
+        <v>-312.7454964000001</v>
+      </c>
+      <c r="Q54">
+        <v>-12.74549640000009</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1828693429008511</v>
+      </c>
+      <c r="T54">
+        <v>1.727102898174788</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0.1837</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.3043073528608482</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1850452845924085</v>
+      </c>
+      <c r="C55">
+        <v>743.9168308490512</v>
+      </c>
+      <c r="D55">
+        <v>2994.149830849051</v>
+      </c>
+      <c r="E55">
+        <v>-288.8669999999997</v>
+      </c>
+      <c r="F55">
+        <v>2494.233</v>
+      </c>
+      <c r="G55">
+        <v>244</v>
+      </c>
+      <c r="H55">
+        <v>1923</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>436.8</v>
+      </c>
+      <c r="K55">
+        <v>300</v>
+      </c>
+      <c r="L55">
+        <v>136.8</v>
+      </c>
+      <c r="M55">
+        <v>458.1906021</v>
+      </c>
+      <c r="N55">
+        <v>-321.3906021</v>
+      </c>
+      <c r="O55">
+        <v>-0</v>
+      </c>
+      <c r="P55">
+        <v>-321.3906021</v>
+      </c>
+      <c r="Q55">
+        <v>-21.39060210000002</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1865623076434224</v>
+      </c>
+      <c r="T55">
+        <v>1.763849768348719</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0.1837</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2985657046936625</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1867892845924085</v>
+      </c>
+      <c r="C56">
+        <v>667.4354784204961</v>
+      </c>
+      <c r="D56">
+        <v>2964.729478420496</v>
+      </c>
+      <c r="E56">
+        <v>-241.8059999999996</v>
+      </c>
+      <c r="F56">
+        <v>2541.294</v>
+      </c>
+      <c r="G56">
+        <v>244</v>
+      </c>
+      <c r="H56">
+        <v>1923</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>436.8</v>
+      </c>
+      <c r="K56">
+        <v>300</v>
+      </c>
+      <c r="L56">
+        <v>136.8</v>
+      </c>
+      <c r="M56">
+        <v>466.8357078000001</v>
+      </c>
+      <c r="N56">
+        <v>-330.0357078000001</v>
+      </c>
+      <c r="O56">
+        <v>-0</v>
+      </c>
+      <c r="P56">
+        <v>-330.0357078000001</v>
+      </c>
+      <c r="Q56">
+        <v>-30.03570780000007</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1904158360704533</v>
+      </c>
+      <c r="T56">
+        <v>1.802194328530213</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0.1837</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2930367101622983</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1885332845924085</v>
+      </c>
+      <c r="C57">
+        <v>591.5266657939319</v>
+      </c>
+      <c r="D57">
+        <v>2935.881665793932</v>
+      </c>
+      <c r="E57">
+        <v>-194.7449999999994</v>
+      </c>
+      <c r="F57">
+        <v>2588.355</v>
+      </c>
+      <c r="G57">
+        <v>244</v>
+      </c>
+      <c r="H57">
+        <v>1923</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>436.8</v>
+      </c>
+      <c r="K57">
+        <v>300</v>
+      </c>
+      <c r="L57">
+        <v>136.8</v>
+      </c>
+      <c r="M57">
+        <v>475.4808135000001</v>
+      </c>
+      <c r="N57">
+        <v>-338.6808135000001</v>
+      </c>
+      <c r="O57">
+        <v>-0</v>
+      </c>
+      <c r="P57">
+        <v>-338.6808135000001</v>
+      </c>
+      <c r="Q57">
+        <v>-38.68081350000006</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1944406324275745</v>
+      </c>
+      <c r="T57">
+        <v>1.84224309138644</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0.1837</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.2877087699775293</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1902772845924085</v>
+      </c>
+      <c r="C58">
+        <v>516.1738410122966</v>
+      </c>
+      <c r="D58">
+        <v>2907.589841012297</v>
+      </c>
+      <c r="E58">
+        <v>-147.6839999999993</v>
+      </c>
+      <c r="F58">
+        <v>2635.416000000001</v>
+      </c>
+      <c r="G58">
+        <v>244</v>
+      </c>
+      <c r="H58">
+        <v>1923</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>436.8</v>
+      </c>
+      <c r="K58">
+        <v>300</v>
+      </c>
+      <c r="L58">
+        <v>136.8</v>
+      </c>
+      <c r="M58">
+        <v>484.1259192000001</v>
+      </c>
+      <c r="N58">
+        <v>-347.3259192000001</v>
+      </c>
+      <c r="O58">
+        <v>-0</v>
+      </c>
+      <c r="P58">
+        <v>-347.3259192000001</v>
+      </c>
+      <c r="Q58">
+        <v>-47.3259192000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1986483740736558</v>
+      </c>
+      <c r="T58">
+        <v>1.884112252554314</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0.1837</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.2825711133707877</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1920212845924085</v>
+      </c>
+      <c r="C59">
+        <v>441.3610840451929</v>
+      </c>
+      <c r="D59">
+        <v>2879.838084045193</v>
+      </c>
+      <c r="E59">
+        <v>-100.6229999999996</v>
+      </c>
+      <c r="F59">
+        <v>2682.477</v>
+      </c>
+      <c r="G59">
+        <v>244</v>
+      </c>
+      <c r="H59">
+        <v>1923</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>436.8</v>
+      </c>
+      <c r="K59">
+        <v>300</v>
+      </c>
+      <c r="L59">
+        <v>136.8</v>
+      </c>
+      <c r="M59">
+        <v>492.7710249</v>
+      </c>
+      <c r="N59">
+        <v>-355.9710249</v>
+      </c>
+      <c r="O59">
+        <v>-0</v>
+      </c>
+      <c r="P59">
+        <v>-355.9710249</v>
+      </c>
+      <c r="Q59">
+        <v>-55.97102490000003</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2030518246335082</v>
+      </c>
+      <c r="T59">
+        <v>1.927928816567205</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0.1837</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2776137254169142</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1937652845924085</v>
+      </c>
+      <c r="C60">
+        <v>367.0730769166039</v>
+      </c>
+      <c r="D60">
+        <v>2852.611076916604</v>
+      </c>
+      <c r="E60">
+        <v>-53.5619999999999</v>
+      </c>
+      <c r="F60">
+        <v>2729.538</v>
+      </c>
+      <c r="G60">
+        <v>244</v>
+      </c>
+      <c r="H60">
+        <v>1923</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>436.8</v>
+      </c>
+      <c r="K60">
+        <v>300</v>
+      </c>
+      <c r="L60">
+        <v>136.8</v>
+      </c>
+      <c r="M60">
+        <v>501.4161306</v>
+      </c>
+      <c r="N60">
+        <v>-364.6161306</v>
+      </c>
+      <c r="O60">
+        <v>-0</v>
+      </c>
+      <c r="P60">
+        <v>-364.6161306</v>
+      </c>
+      <c r="Q60">
+        <v>-64.61613060000002</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2076649633152583</v>
+      </c>
+      <c r="T60">
+        <v>1.973831883628328</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0.1837</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2728272818752433</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1955092845924085</v>
+      </c>
+      <c r="C61">
+        <v>293.2950755112647</v>
+      </c>
+      <c r="D61">
+        <v>2825.894075511265</v>
+      </c>
+      <c r="E61">
+        <v>-6.500999999999749</v>
+      </c>
+      <c r="F61">
+        <v>2776.599</v>
+      </c>
+      <c r="G61">
+        <v>244</v>
+      </c>
+      <c r="H61">
+        <v>1923</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>436.8</v>
+      </c>
+      <c r="K61">
+        <v>300</v>
+      </c>
+      <c r="L61">
+        <v>136.8</v>
+      </c>
+      <c r="M61">
+        <v>510.0612363</v>
+      </c>
+      <c r="N61">
+        <v>-373.2612363</v>
+      </c>
+      <c r="O61">
+        <v>-0</v>
+      </c>
+      <c r="P61">
+        <v>-373.2612363</v>
+      </c>
+      <c r="Q61">
+        <v>-73.26123630000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2125031331522159</v>
+      </c>
+      <c r="T61">
+        <v>2.021974124692433</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0.1837</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2682030906570189</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1972532845924085</v>
+      </c>
+      <c r="C62">
+        <v>220.0128829506812</v>
+      </c>
+      <c r="D62">
+        <v>2799.672882950681</v>
+      </c>
+      <c r="E62">
+        <v>40.5600000000004</v>
+      </c>
+      <c r="F62">
+        <v>2823.66</v>
+      </c>
+      <c r="G62">
+        <v>244</v>
+      </c>
+      <c r="H62">
+        <v>1923</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>436.8</v>
+      </c>
+      <c r="K62">
+        <v>300</v>
+      </c>
+      <c r="L62">
+        <v>136.8</v>
+      </c>
+      <c r="M62">
+        <v>518.7063420000001</v>
+      </c>
+      <c r="N62">
+        <v>-381.9063420000001</v>
+      </c>
+      <c r="O62">
+        <v>-0</v>
+      </c>
+      <c r="P62">
+        <v>-381.9063420000001</v>
+      </c>
+      <c r="Q62">
+        <v>-81.90634200000005</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2175832114810213</v>
+      </c>
+      <c r="T62">
+        <v>2.072523477809745</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0.1837</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2637330391460685</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1989972845924085</v>
+      </c>
+      <c r="C63">
+        <v>147.2128244377614</v>
+      </c>
+      <c r="D63">
+        <v>2773.933824437761</v>
+      </c>
+      <c r="E63">
+        <v>87.62100000000009</v>
+      </c>
+      <c r="F63">
+        <v>2870.721</v>
+      </c>
+      <c r="G63">
+        <v>244</v>
+      </c>
+      <c r="H63">
+        <v>1923</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>436.8</v>
+      </c>
+      <c r="K63">
+        <v>300</v>
+      </c>
+      <c r="L63">
+        <v>136.8</v>
+      </c>
+      <c r="M63">
+        <v>527.3514477</v>
+      </c>
+      <c r="N63">
+        <v>-390.5514477</v>
+      </c>
+      <c r="O63">
+        <v>-0</v>
+      </c>
+      <c r="P63">
+        <v>-390.5514477</v>
+      </c>
+      <c r="Q63">
+        <v>-90.55144769999998</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2229238066472014</v>
+      </c>
+      <c r="T63">
+        <v>2.125665105445892</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0.1837</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.259409546701051</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2007412845924085</v>
+      </c>
+      <c r="C64">
+        <v>74.8817234764183</v>
+      </c>
+      <c r="D64">
+        <v>2748.663723476418</v>
+      </c>
+      <c r="E64">
+        <v>134.6820000000002</v>
+      </c>
+      <c r="F64">
+        <v>2917.782</v>
+      </c>
+      <c r="G64">
+        <v>244</v>
+      </c>
+      <c r="H64">
+        <v>1923</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>436.8</v>
+      </c>
+      <c r="K64">
+        <v>300</v>
+      </c>
+      <c r="L64">
+        <v>136.8</v>
+      </c>
+      <c r="M64">
+        <v>535.9965534</v>
+      </c>
+      <c r="N64">
+        <v>-399.1965534</v>
+      </c>
+      <c r="O64">
+        <v>-0</v>
+      </c>
+      <c r="P64">
+        <v>-399.1965534</v>
+      </c>
+      <c r="Q64">
+        <v>-99.19655340000003</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2285454857694961</v>
+      </c>
+      <c r="T64">
+        <v>2.181603660852363</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0.1837</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2552255217542598</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2024852845924085</v>
+      </c>
+      <c r="C65">
+        <v>3.006879379251131</v>
+      </c>
+      <c r="D65">
+        <v>2723.849879379251</v>
+      </c>
+      <c r="E65">
+        <v>181.7430000000004</v>
+      </c>
+      <c r="F65">
+        <v>2964.843</v>
+      </c>
+      <c r="G65">
+        <v>244</v>
+      </c>
+      <c r="H65">
+        <v>1923</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>436.8</v>
+      </c>
+      <c r="K65">
+        <v>300</v>
+      </c>
+      <c r="L65">
+        <v>136.8</v>
+      </c>
+      <c r="M65">
+        <v>544.6416591000001</v>
+      </c>
+      <c r="N65">
+        <v>-407.8416591000001</v>
+      </c>
+      <c r="O65">
+        <v>-0</v>
+      </c>
+      <c r="P65">
+        <v>-407.8416591000001</v>
+      </c>
+      <c r="Q65">
+        <v>-107.8416591000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2344710394389419</v>
+      </c>
+      <c r="T65">
+        <v>2.240565921956481</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0.1837</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2511743229962557</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2042292845924085</v>
+      </c>
+      <c r="C66">
+        <v>-68.42395401735939</v>
+      </c>
+      <c r="D66">
+        <v>2699.480045982641</v>
+      </c>
+      <c r="E66">
+        <v>228.8040000000005</v>
+      </c>
+      <c r="F66">
+        <v>3011.904</v>
+      </c>
+      <c r="G66">
+        <v>244</v>
+      </c>
+      <c r="H66">
+        <v>1923</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>436.8</v>
+      </c>
+      <c r="K66">
+        <v>300</v>
+      </c>
+      <c r="L66">
+        <v>136.8</v>
+      </c>
+      <c r="M66">
+        <v>553.2867648000001</v>
+      </c>
+      <c r="N66">
+        <v>-416.4867648000001</v>
+      </c>
+      <c r="O66">
+        <v>-0</v>
+      </c>
+      <c r="P66">
+        <v>-416.4867648000001</v>
+      </c>
+      <c r="Q66">
+        <v>-116.4867648000001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2407257905344681</v>
+      </c>
+      <c r="T66">
+        <v>2.30280386423305</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0.1837</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2472497241994391</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2059732845924085</v>
+      </c>
+      <c r="C67">
+        <v>-139.4225885056962</v>
+      </c>
+      <c r="D67">
+        <v>2675.542411494304</v>
+      </c>
+      <c r="E67">
+        <v>275.8650000000002</v>
+      </c>
+      <c r="F67">
+        <v>3058.965</v>
+      </c>
+      <c r="G67">
+        <v>244</v>
+      </c>
+      <c r="H67">
+        <v>1923</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>436.8</v>
+      </c>
+      <c r="K67">
+        <v>300</v>
+      </c>
+      <c r="L67">
+        <v>136.8</v>
+      </c>
+      <c r="M67">
+        <v>561.9318705000001</v>
+      </c>
+      <c r="N67">
+        <v>-425.1318705</v>
+      </c>
+      <c r="O67">
+        <v>-0</v>
+      </c>
+      <c r="P67">
+        <v>-425.1318705</v>
+      </c>
+      <c r="Q67">
+        <v>-125.1318705</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2473379559783101</v>
+      </c>
+      <c r="T67">
+        <v>2.368598260353994</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0.1837</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.2434458822886786</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2077172845924085</v>
+      </c>
+      <c r="C68">
+        <v>-210.0004205963642</v>
+      </c>
+      <c r="D68">
+        <v>2652.025579403636</v>
+      </c>
+      <c r="E68">
+        <v>322.9260000000004</v>
+      </c>
+      <c r="F68">
+        <v>3106.026</v>
+      </c>
+      <c r="G68">
+        <v>244</v>
+      </c>
+      <c r="H68">
+        <v>1923</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>436.8</v>
+      </c>
+      <c r="K68">
+        <v>300</v>
+      </c>
+      <c r="L68">
+        <v>136.8</v>
+      </c>
+      <c r="M68">
+        <v>570.5769762000001</v>
+      </c>
+      <c r="N68">
+        <v>-433.7769762000001</v>
+      </c>
+      <c r="O68">
+        <v>-0</v>
+      </c>
+      <c r="P68">
+        <v>-433.7769762000001</v>
+      </c>
+      <c r="Q68">
+        <v>-133.7769762000001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2543390723306133</v>
+      </c>
+      <c r="T68">
+        <v>2.438262915070288</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0.1837</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.2397573083146077</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2094612845924085</v>
+      </c>
+      <c r="C69">
+        <v>-280.1684496099838</v>
+      </c>
+      <c r="D69">
+        <v>2628.918550390017</v>
+      </c>
+      <c r="E69">
+        <v>369.9870000000005</v>
+      </c>
+      <c r="F69">
+        <v>3153.087</v>
+      </c>
+      <c r="G69">
+        <v>244</v>
+      </c>
+      <c r="H69">
+        <v>1923</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>436.8</v>
+      </c>
+      <c r="K69">
+        <v>300</v>
+      </c>
+      <c r="L69">
+        <v>136.8</v>
+      </c>
+      <c r="M69">
+        <v>579.2220819</v>
+      </c>
+      <c r="N69">
+        <v>-442.4220819</v>
+      </c>
+      <c r="O69">
+        <v>-0</v>
+      </c>
+      <c r="P69">
+        <v>-442.4220819</v>
+      </c>
+      <c r="Q69">
+        <v>-142.4220819</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2617644987648743</v>
+      </c>
+      <c r="T69">
+        <v>2.512149670072418</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0.1837</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.23617884102633</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2112052845924085</v>
+      </c>
+      <c r="C70">
+        <v>-349.9372948312498</v>
+      </c>
+      <c r="D70">
+        <v>2606.210705168751</v>
+      </c>
+      <c r="E70">
+        <v>417.0480000000007</v>
+      </c>
+      <c r="F70">
+        <v>3200.148000000001</v>
+      </c>
+      <c r="G70">
+        <v>244</v>
+      </c>
+      <c r="H70">
+        <v>1923</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>436.8</v>
+      </c>
+      <c r="K70">
+        <v>300</v>
+      </c>
+      <c r="L70">
+        <v>136.8</v>
+      </c>
+      <c r="M70">
+        <v>587.8671876000001</v>
+      </c>
+      <c r="N70">
+        <v>-451.0671876000001</v>
+      </c>
+      <c r="O70">
+        <v>-0</v>
+      </c>
+      <c r="P70">
+        <v>-451.0671876000001</v>
+      </c>
+      <c r="Q70">
+        <v>-151.0671876000001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2696540143512767</v>
+      </c>
+      <c r="T70">
+        <v>2.590654347262181</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0.1837</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.2327056227759428</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2129492845924085</v>
+      </c>
+      <c r="C71">
+        <v>-419.3172117815911</v>
+      </c>
+      <c r="D71">
+        <v>2583.89178821841</v>
+      </c>
+      <c r="E71">
+        <v>464.1090000000008</v>
+      </c>
+      <c r="F71">
+        <v>3247.209000000001</v>
+      </c>
+      <c r="G71">
+        <v>244</v>
+      </c>
+      <c r="H71">
+        <v>1923</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>436.8</v>
+      </c>
+      <c r="K71">
+        <v>300</v>
+      </c>
+      <c r="L71">
+        <v>136.8</v>
+      </c>
+      <c r="M71">
+        <v>596.5122933000001</v>
+      </c>
+      <c r="N71">
+        <v>-459.7122933000001</v>
+      </c>
+      <c r="O71">
+        <v>-0</v>
+      </c>
+      <c r="P71">
+        <v>-459.7122933000001</v>
+      </c>
+      <c r="Q71">
+        <v>-159.7122933000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2780525309432533</v>
+      </c>
+      <c r="T71">
+        <v>2.674223842335155</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0.1837</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.2293330775183204</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2146932845924085</v>
+      </c>
+      <c r="C72">
+        <v>-488.3181076627793</v>
+      </c>
+      <c r="D72">
+        <v>2561.951892337221</v>
+      </c>
+      <c r="E72">
+        <v>511.1700000000005</v>
+      </c>
+      <c r="F72">
+        <v>3294.27</v>
+      </c>
+      <c r="G72">
+        <v>244</v>
+      </c>
+      <c r="H72">
+        <v>1923</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>436.8</v>
+      </c>
+      <c r="K72">
+        <v>300</v>
+      </c>
+      <c r="L72">
+        <v>136.8</v>
+      </c>
+      <c r="M72">
+        <v>605.1573990000001</v>
+      </c>
+      <c r="N72">
+        <v>-468.357399</v>
+      </c>
+      <c r="O72">
+        <v>-0</v>
+      </c>
+      <c r="P72">
+        <v>-468.357399</v>
+      </c>
+      <c r="Q72">
+        <v>-168.357399</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2870109486413618</v>
+      </c>
+      <c r="T72">
+        <v>2.76336463707966</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0.1837</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2260568906966302</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2164372845924085</v>
+      </c>
+      <c r="C73">
+        <v>-556.9495560203895</v>
+      </c>
+      <c r="D73">
+        <v>2540.381443979611</v>
+      </c>
+      <c r="E73">
+        <v>558.2310000000002</v>
+      </c>
+      <c r="F73">
+        <v>3341.331</v>
+      </c>
+      <c r="G73">
+        <v>244</v>
+      </c>
+      <c r="H73">
+        <v>1923</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>436.8</v>
+      </c>
+      <c r="K73">
+        <v>300</v>
+      </c>
+      <c r="L73">
+        <v>136.8</v>
+      </c>
+      <c r="M73">
+        <v>613.8025047</v>
+      </c>
+      <c r="N73">
+        <v>-477.0025047</v>
+      </c>
+      <c r="O73">
+        <v>-0</v>
+      </c>
+      <c r="P73">
+        <v>-477.0025047</v>
+      </c>
+      <c r="Q73">
+        <v>-177.0025047</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2965871882496846</v>
+      </c>
+      <c r="T73">
+        <v>2.858653072841027</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0.1837</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2228729908276635</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2181812845924085</v>
+      </c>
+      <c r="C74">
+        <v>-625.2208106726707</v>
+      </c>
+      <c r="D74">
+        <v>2519.17118932733</v>
+      </c>
+      <c r="E74">
+        <v>605.2920000000004</v>
+      </c>
+      <c r="F74">
+        <v>3388.392</v>
+      </c>
+      <c r="G74">
+        <v>244</v>
+      </c>
+      <c r="H74">
+        <v>1923</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>436.8</v>
+      </c>
+      <c r="K74">
+        <v>300</v>
+      </c>
+      <c r="L74">
+        <v>136.8</v>
+      </c>
+      <c r="M74">
+        <v>622.4476104</v>
+      </c>
+      <c r="N74">
+        <v>-485.6476104</v>
+      </c>
+      <c r="O74">
+        <v>-0</v>
+      </c>
+      <c r="P74">
+        <v>-485.6476104</v>
+      </c>
+      <c r="Q74">
+        <v>-185.6476104</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3068474449728876</v>
+      </c>
+      <c r="T74">
+        <v>2.960747825442493</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0.1837</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2197775326217237</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2199252845924085</v>
+      </c>
+      <c r="C75">
+        <v>-693.1408189474305</v>
+      </c>
+      <c r="D75">
+        <v>2498.312181052569</v>
+      </c>
+      <c r="E75">
+        <v>652.3530000000001</v>
+      </c>
+      <c r="F75">
+        <v>3435.453</v>
+      </c>
+      <c r="G75">
+        <v>244</v>
+      </c>
+      <c r="H75">
+        <v>1923</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>436.8</v>
+      </c>
+      <c r="K75">
+        <v>300</v>
+      </c>
+      <c r="L75">
+        <v>136.8</v>
+      </c>
+      <c r="M75">
+        <v>631.0927161</v>
+      </c>
+      <c r="N75">
+        <v>-494.2927161</v>
+      </c>
+      <c r="O75">
+        <v>-0</v>
+      </c>
+      <c r="P75">
+        <v>-494.2927161</v>
+      </c>
+      <c r="Q75">
+        <v>-194.2927161</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3178677207126241</v>
+      </c>
+      <c r="T75">
+        <v>3.070405152310733</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0.1837</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2167668814899194</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2216692845924085</v>
+      </c>
+      <c r="C76">
+        <v>-760.7182342667084</v>
+      </c>
+      <c r="D76">
+        <v>2477.795765733292</v>
+      </c>
+      <c r="E76">
+        <v>699.4140000000002</v>
+      </c>
+      <c r="F76">
+        <v>3482.514</v>
+      </c>
+      <c r="G76">
+        <v>244</v>
+      </c>
+      <c r="H76">
+        <v>1923</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>436.8</v>
+      </c>
+      <c r="K76">
+        <v>300</v>
+      </c>
+      <c r="L76">
+        <v>136.8</v>
+      </c>
+      <c r="M76">
+        <v>639.7378218</v>
+      </c>
+      <c r="N76">
+        <v>-502.9378218</v>
+      </c>
+      <c r="O76">
+        <v>-0</v>
+      </c>
+      <c r="P76">
+        <v>-502.9378218</v>
+      </c>
+      <c r="Q76">
+        <v>-202.9378218</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.329735709970802</v>
+      </c>
+      <c r="T76">
+        <v>3.188497658168838</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0.1837</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2138375993076231</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2234132845924085</v>
+      </c>
+      <c r="C77">
+        <v>-827.9614281164031</v>
+      </c>
+      <c r="D77">
+        <v>2457.613571883597</v>
+      </c>
+      <c r="E77">
+        <v>746.4750000000004</v>
+      </c>
+      <c r="F77">
+        <v>3529.575</v>
+      </c>
+      <c r="G77">
+        <v>244</v>
+      </c>
+      <c r="H77">
+        <v>1923</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>436.8</v>
+      </c>
+      <c r="K77">
+        <v>300</v>
+      </c>
+      <c r="L77">
+        <v>136.8</v>
+      </c>
+      <c r="M77">
+        <v>648.3829275000001</v>
+      </c>
+      <c r="N77">
+        <v>-511.5829275</v>
+      </c>
+      <c r="O77">
+        <v>-0</v>
+      </c>
+      <c r="P77">
+        <v>-511.5829275</v>
+      </c>
+      <c r="Q77">
+        <v>-211.5829275</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3425531383696341</v>
+      </c>
+      <c r="T77">
+        <v>3.316037564495592</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0.1837</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2109864313168548</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2251572845924085</v>
+      </c>
+      <c r="C78">
+        <v>-894.8785014356713</v>
+      </c>
+      <c r="D78">
+        <v>2437.757498564329</v>
+      </c>
+      <c r="E78">
+        <v>793.5360000000005</v>
+      </c>
+      <c r="F78">
+        <v>3576.636</v>
+      </c>
+      <c r="G78">
+        <v>244</v>
+      </c>
+      <c r="H78">
+        <v>1923</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>436.8</v>
+      </c>
+      <c r="K78">
+        <v>300</v>
+      </c>
+      <c r="L78">
+        <v>136.8</v>
+      </c>
+      <c r="M78">
+        <v>657.0280332000001</v>
+      </c>
+      <c r="N78">
+        <v>-520.2280332</v>
+      </c>
+      <c r="O78">
+        <v>-0</v>
+      </c>
+      <c r="P78">
+        <v>-520.2280332</v>
+      </c>
+      <c r="Q78">
+        <v>-220.2280332</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3564386858017022</v>
+      </c>
+      <c r="T78">
+        <v>3.454205796349575</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0.1837</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2082102940626858</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2269012845924085</v>
+      </c>
+      <c r="C79">
+        <v>-961.4772954586228</v>
+      </c>
+      <c r="D79">
+        <v>2418.219704541378</v>
+      </c>
+      <c r="E79">
+        <v>840.5970000000007</v>
+      </c>
+      <c r="F79">
+        <v>3623.697000000001</v>
+      </c>
+      <c r="G79">
+        <v>244</v>
+      </c>
+      <c r="H79">
+        <v>1923</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>436.8</v>
+      </c>
+      <c r="K79">
+        <v>300</v>
+      </c>
+      <c r="L79">
+        <v>136.8</v>
+      </c>
+      <c r="M79">
+        <v>665.6731389000001</v>
+      </c>
+      <c r="N79">
+        <v>-528.8731389000002</v>
+      </c>
+      <c r="O79">
+        <v>-0</v>
+      </c>
+      <c r="P79">
+        <v>-528.8731389000002</v>
+      </c>
+      <c r="Q79">
+        <v>-228.8731389000002</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3715316721409066</v>
+      </c>
+      <c r="T79">
+        <v>3.604388657060426</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0.1837</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2055062642696637</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2286452845924085</v>
+      </c>
+      <c r="C80">
+        <v>-1027.765402038812</v>
+      </c>
+      <c r="D80">
+        <v>2398.992597961188</v>
+      </c>
+      <c r="E80">
+        <v>887.6580000000004</v>
+      </c>
+      <c r="F80">
+        <v>3670.758</v>
+      </c>
+      <c r="G80">
+        <v>244</v>
+      </c>
+      <c r="H80">
+        <v>1923</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>436.8</v>
+      </c>
+      <c r="K80">
+        <v>300</v>
+      </c>
+      <c r="L80">
+        <v>136.8</v>
+      </c>
+      <c r="M80">
+        <v>674.3182446000001</v>
+      </c>
+      <c r="N80">
+        <v>-537.5182446000001</v>
+      </c>
+      <c r="O80">
+        <v>-0</v>
+      </c>
+      <c r="P80">
+        <v>-537.5182446000001</v>
+      </c>
+      <c r="Q80">
+        <v>-237.5182446000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3879967481473115</v>
+      </c>
+      <c r="T80">
+        <v>3.768224505108627</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0.1837</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2028715685738988</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2303892845924085</v>
+      </c>
+      <c r="C81">
+        <v>-1093.750173485075</v>
+      </c>
+      <c r="D81">
+        <v>2380.068826514926</v>
+      </c>
+      <c r="E81">
+        <v>934.7190000000005</v>
+      </c>
+      <c r="F81">
+        <v>3717.819</v>
+      </c>
+      <c r="G81">
+        <v>244</v>
+      </c>
+      <c r="H81">
+        <v>1923</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>436.8</v>
+      </c>
+      <c r="K81">
+        <v>300</v>
+      </c>
+      <c r="L81">
+        <v>136.8</v>
+      </c>
+      <c r="M81">
+        <v>682.9633503000001</v>
+      </c>
+      <c r="N81">
+        <v>-546.1633503</v>
+      </c>
+      <c r="O81">
+        <v>-0</v>
+      </c>
+      <c r="P81">
+        <v>-546.1633503</v>
+      </c>
+      <c r="Q81">
+        <v>-246.1633503</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4060299266305168</v>
+      </c>
+      <c r="T81">
+        <v>3.947663767256658</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0.1837</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.2003035740349888</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2321332845924085</v>
+      </c>
+      <c r="C82">
+        <v>-1159.438731935485</v>
+      </c>
+      <c r="D82">
+        <v>2361.441268064516</v>
+      </c>
+      <c r="E82">
+        <v>981.7800000000007</v>
+      </c>
+      <c r="F82">
+        <v>3764.880000000001</v>
+      </c>
+      <c r="G82">
+        <v>244</v>
+      </c>
+      <c r="H82">
+        <v>1923</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>436.8</v>
+      </c>
+      <c r="K82">
+        <v>300</v>
+      </c>
+      <c r="L82">
+        <v>136.8</v>
+      </c>
+      <c r="M82">
+        <v>691.6084560000002</v>
+      </c>
+      <c r="N82">
+        <v>-554.8084560000002</v>
+      </c>
+      <c r="O82">
+        <v>-0</v>
+      </c>
+      <c r="P82">
+        <v>-554.8084560000002</v>
+      </c>
+      <c r="Q82">
+        <v>-254.8084560000002</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4258664229620426</v>
+      </c>
+      <c r="T82">
+        <v>4.14504695561949</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0.1837</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.1977997793595513</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2338772845924085</v>
+      </c>
+      <c r="C83">
+        <v>-1224.837978294546</v>
+      </c>
+      <c r="D83">
+        <v>2343.103021705455</v>
+      </c>
+      <c r="E83">
+        <v>1028.841000000001</v>
+      </c>
+      <c r="F83">
+        <v>3811.941000000001</v>
+      </c>
+      <c r="G83">
+        <v>244</v>
+      </c>
+      <c r="H83">
+        <v>1923</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>436.8</v>
+      </c>
+      <c r="K83">
+        <v>300</v>
+      </c>
+      <c r="L83">
+        <v>136.8</v>
+      </c>
+      <c r="M83">
+        <v>700.2535617000001</v>
+      </c>
+      <c r="N83">
+        <v>-563.4535617000001</v>
+      </c>
+      <c r="O83">
+        <v>-0</v>
+      </c>
+      <c r="P83">
+        <v>-563.4535617000001</v>
+      </c>
+      <c r="Q83">
+        <v>-263.4535617000001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4477909715389923</v>
+      </c>
+      <c r="T83">
+        <v>4.363207321704727</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0.1837</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1953578067748655</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2356212845924085</v>
+      </c>
+      <c r="C84">
+        <v>-1289.95460075716</v>
+      </c>
+      <c r="D84">
+        <v>2325.047399242841</v>
+      </c>
+      <c r="E84">
+        <v>1075.902</v>
+      </c>
+      <c r="F84">
+        <v>3859.002</v>
+      </c>
+      <c r="G84">
+        <v>244</v>
+      </c>
+      <c r="H84">
+        <v>1923</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>436.8</v>
+      </c>
+      <c r="K84">
+        <v>300</v>
+      </c>
+      <c r="L84">
+        <v>136.8</v>
+      </c>
+      <c r="M84">
+        <v>708.8986674000001</v>
+      </c>
+      <c r="N84">
+        <v>-572.0986674000001</v>
+      </c>
+      <c r="O84">
+        <v>-0</v>
+      </c>
+      <c r="P84">
+        <v>-572.0986674000001</v>
+      </c>
+      <c r="Q84">
+        <v>-272.0986674000001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4721515810689363</v>
+      </c>
+      <c r="T84">
+        <v>4.605607728466101</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0.1837</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1929753944971233</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2373652845924085</v>
+      </c>
+      <c r="C85">
+        <v>-1354.795082941509</v>
+      </c>
+      <c r="D85">
+        <v>2307.267917058491</v>
+      </c>
+      <c r="E85">
+        <v>1122.963000000001</v>
+      </c>
+      <c r="F85">
+        <v>3906.063000000001</v>
+      </c>
+      <c r="G85">
+        <v>244</v>
+      </c>
+      <c r="H85">
+        <v>1923</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>436.8</v>
+      </c>
+      <c r="K85">
+        <v>300</v>
+      </c>
+      <c r="L85">
+        <v>136.8</v>
+      </c>
+      <c r="M85">
+        <v>717.5437731000001</v>
+      </c>
+      <c r="N85">
+        <v>-580.7437731</v>
+      </c>
+      <c r="O85">
+        <v>-0</v>
+      </c>
+      <c r="P85">
+        <v>-580.7437731</v>
+      </c>
+      <c r="Q85">
+        <v>-280.7437731</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4993781446612267</v>
+      </c>
+      <c r="T85">
+        <v>4.876525830140578</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0.1837</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1906503897441459</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2391092845924085</v>
+      </c>
+      <c r="C86">
+        <v>-1419.365711651624</v>
+      </c>
+      <c r="D86">
+        <v>2289.758288348376</v>
+      </c>
+      <c r="E86">
+        <v>1170.024</v>
+      </c>
+      <c r="F86">
+        <v>3953.124</v>
+      </c>
+      <c r="G86">
+        <v>244</v>
+      </c>
+      <c r="H86">
+        <v>1923</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>436.8</v>
+      </c>
+      <c r="K86">
+        <v>300</v>
+      </c>
+      <c r="L86">
+        <v>136.8</v>
+      </c>
+      <c r="M86">
+        <v>726.1888788000001</v>
+      </c>
+      <c r="N86">
+        <v>-589.3888788000002</v>
+      </c>
+      <c r="O86">
+        <v>-0</v>
+      </c>
+      <c r="P86">
+        <v>-589.3888788000002</v>
+      </c>
+      <c r="Q86">
+        <v>-289.3888788000002</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5300080287025531</v>
+      </c>
+      <c r="T86">
+        <v>5.181308694524361</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0.1837</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1883807422471917</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2408532845924085</v>
+      </c>
+      <c r="C87">
+        <v>-1483.672584289141</v>
+      </c>
+      <c r="D87">
+        <v>2272.512415710859</v>
+      </c>
+      <c r="E87">
+        <v>1217.085</v>
+      </c>
+      <c r="F87">
+        <v>4000.185</v>
+      </c>
+      <c r="G87">
+        <v>244</v>
+      </c>
+      <c r="H87">
+        <v>1923</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>436.8</v>
+      </c>
+      <c r="K87">
+        <v>300</v>
+      </c>
+      <c r="L87">
+        <v>136.8</v>
+      </c>
+      <c r="M87">
+        <v>734.8339845</v>
+      </c>
+      <c r="N87">
+        <v>-598.0339845000001</v>
+      </c>
+      <c r="O87">
+        <v>-0</v>
+      </c>
+      <c r="P87">
+        <v>-598.0339845000001</v>
+      </c>
+      <c r="Q87">
+        <v>-298.0339845000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5647218972827234</v>
+      </c>
+      <c r="T87">
+        <v>5.526729274159319</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0.1837</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1861644982207542</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2425972845924085</v>
+      </c>
+      <c r="C88">
+        <v>-1547.721615932647</v>
+      </c>
+      <c r="D88">
+        <v>2255.524384067353</v>
+      </c>
+      <c r="E88">
+        <v>1264.146</v>
+      </c>
+      <c r="F88">
+        <v>4047.246</v>
+      </c>
+      <c r="G88">
+        <v>244</v>
+      </c>
+      <c r="H88">
+        <v>1923</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>436.8</v>
+      </c>
+      <c r="K88">
+        <v>300</v>
+      </c>
+      <c r="L88">
+        <v>136.8</v>
+      </c>
+      <c r="M88">
+        <v>743.4790902</v>
+      </c>
+      <c r="N88">
+        <v>-606.6790902</v>
+      </c>
+      <c r="O88">
+        <v>-0</v>
+      </c>
+      <c r="P88">
+        <v>-606.6790902</v>
+      </c>
+      <c r="Q88">
+        <v>-306.6790902</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6043948899457752</v>
+      </c>
+      <c r="T88">
+        <v>5.921495650884985</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0.1837</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.183999794753071</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2443412845924085</v>
+      </c>
+      <c r="C89">
+        <v>-1611.518546101829</v>
+      </c>
+      <c r="D89">
+        <v>2238.788453898172</v>
+      </c>
+      <c r="E89">
+        <v>1311.207</v>
+      </c>
+      <c r="F89">
+        <v>4094.307</v>
+      </c>
+      <c r="G89">
+        <v>244</v>
+      </c>
+      <c r="H89">
+        <v>1923</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>436.8</v>
+      </c>
+      <c r="K89">
+        <v>300</v>
+      </c>
+      <c r="L89">
+        <v>136.8</v>
+      </c>
+      <c r="M89">
+        <v>752.1241959</v>
+      </c>
+      <c r="N89">
+        <v>-615.3241958999999</v>
+      </c>
+      <c r="O89">
+        <v>-0</v>
+      </c>
+      <c r="P89">
+        <v>-615.3241958999999</v>
+      </c>
+      <c r="Q89">
+        <v>-315.3241958999999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.650171419941604</v>
+      </c>
+      <c r="T89">
+        <v>6.376995316337676</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0.1837</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.1818848545834956</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2460852845924085</v>
+      </c>
+      <c r="C90">
+        <v>-1675.068945222722</v>
+      </c>
+      <c r="D90">
+        <v>2222.299054777278</v>
+      </c>
+      <c r="E90">
+        <v>1358.268</v>
+      </c>
+      <c r="F90">
+        <v>4141.368</v>
+      </c>
+      <c r="G90">
+        <v>244</v>
+      </c>
+      <c r="H90">
+        <v>1923</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>436.8</v>
+      </c>
+      <c r="K90">
+        <v>300</v>
+      </c>
+      <c r="L90">
+        <v>136.8</v>
+      </c>
+      <c r="M90">
+        <v>760.7693016000001</v>
+      </c>
+      <c r="N90">
+        <v>-623.9693016000001</v>
+      </c>
+      <c r="O90">
+        <v>-0</v>
+      </c>
+      <c r="P90">
+        <v>-623.9693016000001</v>
+      </c>
+      <c r="Q90">
+        <v>-323.9693016000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.7035773716034044</v>
+      </c>
+      <c r="T90">
+        <v>6.90841159269915</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0.1837</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1798179812359557</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2478292845924085</v>
+      </c>
+      <c r="C91">
+        <v>-1738.37822080932</v>
+      </c>
+      <c r="D91">
+        <v>2206.05077919068</v>
+      </c>
+      <c r="E91">
+        <v>1405.329</v>
+      </c>
+      <c r="F91">
+        <v>4188.429</v>
+      </c>
+      <c r="G91">
+        <v>244</v>
+      </c>
+      <c r="H91">
+        <v>1923</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>436.8</v>
+      </c>
+      <c r="K91">
+        <v>300</v>
+      </c>
+      <c r="L91">
+        <v>136.8</v>
+      </c>
+      <c r="M91">
+        <v>769.4144073</v>
+      </c>
+      <c r="N91">
+        <v>-632.6144073</v>
+      </c>
+      <c r="O91">
+        <v>-0</v>
+      </c>
+      <c r="P91">
+        <v>-632.6144073</v>
+      </c>
+      <c r="Q91">
+        <v>-332.6144073</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.766693496294623</v>
+      </c>
+      <c r="T91">
+        <v>7.536449010217255</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0.1837</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1777975544804956</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2495732845924085</v>
+      </c>
+      <c r="C92">
+        <v>-1801.451623375986</v>
+      </c>
+      <c r="D92">
+        <v>2190.038376624015</v>
+      </c>
+      <c r="E92">
+        <v>1452.390000000001</v>
+      </c>
+      <c r="F92">
+        <v>4235.490000000001</v>
+      </c>
+      <c r="G92">
+        <v>244</v>
+      </c>
+      <c r="H92">
+        <v>1923</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>436.8</v>
+      </c>
+      <c r="K92">
+        <v>300</v>
+      </c>
+      <c r="L92">
+        <v>136.8</v>
+      </c>
+      <c r="M92">
+        <v>778.0595130000002</v>
+      </c>
+      <c r="N92">
+        <v>-641.2595130000002</v>
+      </c>
+      <c r="O92">
+        <v>-0</v>
+      </c>
+      <c r="P92">
+        <v>-641.2595130000002</v>
+      </c>
+      <c r="Q92">
+        <v>-341.2595130000002</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8424328459240853</v>
+      </c>
+      <c r="T92">
+        <v>8.29009391123898</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0.1837</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.175822026097379</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2513172845924085</v>
+      </c>
+      <c r="C93">
+        <v>-1864.294252094218</v>
+      </c>
+      <c r="D93">
+        <v>2174.256747905782</v>
+      </c>
+      <c r="E93">
+        <v>1499.451</v>
+      </c>
+      <c r="F93">
+        <v>4282.551</v>
+      </c>
+      <c r="G93">
+        <v>244</v>
+      </c>
+      <c r="H93">
+        <v>1923</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>436.8</v>
+      </c>
+      <c r="K93">
+        <v>300</v>
+      </c>
+      <c r="L93">
+        <v>136.8</v>
+      </c>
+      <c r="M93">
+        <v>786.7046187000001</v>
+      </c>
+      <c r="N93">
+        <v>-649.9046187000001</v>
+      </c>
+      <c r="O93">
+        <v>-0</v>
+      </c>
+      <c r="P93">
+        <v>-649.9046187000001</v>
+      </c>
+      <c r="Q93">
+        <v>-349.9046187000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.9350031621378727</v>
+      </c>
+      <c r="T93">
+        <v>9.211215456932202</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0.1837</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1738899159204846</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2530612845924085</v>
+      </c>
+      <c r="C94">
+        <v>-1926.911060206602</v>
+      </c>
+      <c r="D94">
+        <v>2158.700939793398</v>
+      </c>
+      <c r="E94">
+        <v>1546.512</v>
+      </c>
+      <c r="F94">
+        <v>4329.612</v>
+      </c>
+      <c r="G94">
+        <v>244</v>
+      </c>
+      <c r="H94">
+        <v>1923</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>436.8</v>
+      </c>
+      <c r="K94">
+        <v>300</v>
+      </c>
+      <c r="L94">
+        <v>136.8</v>
+      </c>
+      <c r="M94">
+        <v>795.3497244</v>
+      </c>
+      <c r="N94">
+        <v>-658.5497244000001</v>
+      </c>
+      <c r="O94">
+        <v>-0</v>
+      </c>
+      <c r="P94">
+        <v>-658.5497244000001</v>
+      </c>
+      <c r="Q94">
+        <v>-358.5497244000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.050716057405107</v>
+      </c>
+      <c r="T94">
+        <v>10.36261738904873</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0.1837</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1719998081387403</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2548052845924086</v>
+      </c>
+      <c r="C95">
+        <v>-1989.306860209992</v>
+      </c>
+      <c r="D95">
+        <v>2143.366139790009</v>
+      </c>
+      <c r="E95">
+        <v>1593.573000000001</v>
+      </c>
+      <c r="F95">
+        <v>4376.673000000001</v>
+      </c>
+      <c r="G95">
+        <v>244</v>
+      </c>
+      <c r="H95">
+        <v>1923</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>436.8</v>
+      </c>
+      <c r="K95">
+        <v>300</v>
+      </c>
+      <c r="L95">
+        <v>136.8</v>
+      </c>
+      <c r="M95">
+        <v>803.9948301000002</v>
+      </c>
+      <c r="N95">
+        <v>-667.1948301000002</v>
+      </c>
+      <c r="O95">
+        <v>-0</v>
+      </c>
+      <c r="P95">
+        <v>-667.1948301000002</v>
+      </c>
+      <c r="Q95">
+        <v>-367.1948301000002</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.199489779891551</v>
+      </c>
+      <c r="T95">
+        <v>11.84299130176998</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0.1837</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1701503478361731</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2565492845924086</v>
+      </c>
+      <c r="C96">
+        <v>-2051.486328819338</v>
+      </c>
+      <c r="D96">
+        <v>2128.247671180662</v>
+      </c>
+      <c r="E96">
+        <v>1640.634</v>
+      </c>
+      <c r="F96">
+        <v>4423.734</v>
+      </c>
+      <c r="G96">
+        <v>244</v>
+      </c>
+      <c r="H96">
+        <v>1923</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>436.8</v>
+      </c>
+      <c r="K96">
+        <v>300</v>
+      </c>
+      <c r="L96">
+        <v>136.8</v>
+      </c>
+      <c r="M96">
+        <v>812.6399358000001</v>
+      </c>
+      <c r="N96">
+        <v>-675.8399358000001</v>
+      </c>
+      <c r="O96">
+        <v>-0</v>
+      </c>
+      <c r="P96">
+        <v>-675.8399358000001</v>
+      </c>
+      <c r="Q96">
+        <v>-375.8399358000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.39785474320681</v>
+      </c>
+      <c r="T96">
+        <v>13.81682318539831</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0.1837</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1683402377528096</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2582932845924085</v>
+      </c>
+      <c r="C97">
+        <v>-2113.454011722915</v>
+      </c>
+      <c r="D97">
+        <v>2113.340988277086</v>
+      </c>
+      <c r="E97">
+        <v>1687.695000000001</v>
+      </c>
+      <c r="F97">
+        <v>4470.795000000001</v>
+      </c>
+      <c r="G97">
+        <v>244</v>
+      </c>
+      <c r="H97">
+        <v>1923</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>436.8</v>
+      </c>
+      <c r="K97">
+        <v>300</v>
+      </c>
+      <c r="L97">
+        <v>136.8</v>
+      </c>
+      <c r="M97">
+        <v>821.2850415000001</v>
+      </c>
+      <c r="N97">
+        <v>-684.4850415000001</v>
+      </c>
+      <c r="O97">
+        <v>-0</v>
+      </c>
+      <c r="P97">
+        <v>-684.4850415000001</v>
+      </c>
+      <c r="Q97">
+        <v>-384.4850415000001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.675565691848173</v>
+      </c>
+      <c r="T97">
+        <v>16.58018782247798</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0.1837</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1665682352501486</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2600372845924085</v>
+      </c>
+      <c r="C98">
+        <v>-2175.214328139085</v>
+      </c>
+      <c r="D98">
+        <v>2098.641671860915</v>
+      </c>
+      <c r="E98">
+        <v>1734.756</v>
+      </c>
+      <c r="F98">
+        <v>4517.856</v>
+      </c>
+      <c r="G98">
+        <v>244</v>
+      </c>
+      <c r="H98">
+        <v>1923</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>436.8</v>
+      </c>
+      <c r="K98">
+        <v>300</v>
+      </c>
+      <c r="L98">
+        <v>136.8</v>
+      </c>
+      <c r="M98">
+        <v>829.9301472</v>
+      </c>
+      <c r="N98">
+        <v>-693.1301472</v>
+      </c>
+      <c r="O98">
+        <v>-0</v>
+      </c>
+      <c r="P98">
+        <v>-693.1301472</v>
+      </c>
+      <c r="Q98">
+        <v>-393.1301472</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.092132114810211</v>
+      </c>
+      <c r="T98">
+        <v>20.72523477809743</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0.1837</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1648331494662928</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2617812845924085</v>
+      </c>
+      <c r="C99">
+        <v>-2236.771575184223</v>
+      </c>
+      <c r="D99">
+        <v>2084.145424815777</v>
+      </c>
+      <c r="E99">
+        <v>1781.817</v>
+      </c>
+      <c r="F99">
+        <v>4564.917</v>
+      </c>
+      <c r="G99">
+        <v>244</v>
+      </c>
+      <c r="H99">
+        <v>1923</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>436.8</v>
+      </c>
+      <c r="K99">
+        <v>300</v>
+      </c>
+      <c r="L99">
+        <v>136.8</v>
+      </c>
+      <c r="M99">
+        <v>838.5752529000001</v>
+      </c>
+      <c r="N99">
+        <v>-701.7752529000002</v>
+      </c>
+      <c r="O99">
+        <v>-0</v>
+      </c>
+      <c r="P99">
+        <v>-701.7752529000002</v>
+      </c>
+      <c r="Q99">
+        <v>-401.7752529000002</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.786409486413616</v>
+      </c>
+      <c r="T99">
+        <v>27.63364637079658</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0.1837</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1631338386470526</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2635252845924085</v>
+      </c>
+      <c r="C100">
+        <v>-2298.129932060846</v>
+      </c>
+      <c r="D100">
+        <v>2069.848067939154</v>
+      </c>
+      <c r="E100">
+        <v>1828.878</v>
+      </c>
+      <c r="F100">
+        <v>4611.978</v>
+      </c>
+      <c r="G100">
+        <v>244</v>
+      </c>
+      <c r="H100">
+        <v>1923</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>436.8</v>
+      </c>
+      <c r="K100">
+        <v>300</v>
+      </c>
+      <c r="L100">
+        <v>136.8</v>
+      </c>
+      <c r="M100">
+        <v>847.2203586000001</v>
+      </c>
+      <c r="N100">
+        <v>-710.4203586000001</v>
+      </c>
+      <c r="O100">
+        <v>-0</v>
+      </c>
+      <c r="P100">
+        <v>-710.4203586000001</v>
+      </c>
+      <c r="Q100">
+        <v>-410.4203586000001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.174964229620422</v>
+      </c>
+      <c r="T100">
+        <v>41.45046955619486</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0.1837</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.16146920764045</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2652692845924085</v>
+      </c>
+      <c r="C101">
+        <v>-2359.293464074537</v>
+      </c>
+      <c r="D101">
+        <v>2055.745535925464</v>
+      </c>
+      <c r="E101">
+        <v>1875.939000000001</v>
+      </c>
+      <c r="F101">
+        <v>4659.039000000001</v>
+      </c>
+      <c r="G101">
+        <v>244</v>
+      </c>
+      <c r="H101">
+        <v>1923</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>436.8</v>
+      </c>
+      <c r="K101">
+        <v>300</v>
+      </c>
+      <c r="L101">
+        <v>136.8</v>
+      </c>
+      <c r="M101">
+        <v>855.8654643000001</v>
+      </c>
+      <c r="N101">
+        <v>-719.0654643</v>
+      </c>
+      <c r="O101">
+        <v>-0</v>
+      </c>
+      <c r="P101">
+        <v>-719.0654643</v>
+      </c>
+      <c r="Q101">
+        <v>-419.0654643</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.340628459240845</v>
+      </c>
+      <c r="T101">
+        <v>82.90093911238972</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0.1837</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1598382055430719</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
